--- a/Data/IMUReadingsClip/DefenderDrag2aNeutral.xlsx
+++ b/Data/IMUReadingsClip/DefenderDrag2aNeutral.xlsx
@@ -15,7 +15,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>UncalAccelXMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelYMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelZMps2</t>
+  </si>
+  <si>
+    <t>BiasXMps2</t>
+  </si>
+  <si>
+    <t>BiasYMps2</t>
+  </si>
+  <si>
+    <t>BiasZMps2</t>
+  </si>
+  <si>
+    <t>CalAccelXMps2</t>
+  </si>
+  <si>
+    <t>CalAccelYMps2</t>
+  </si>
+  <si>
+    <t>CalAccelZMps2</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
   <si>
     <t>utcTimeMillis</t>
   </si>
@@ -83,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -93,14 +141,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,37 +180,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -16069,19 +16121,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">

--- a/Data/IMUReadingsClip/DefenderDrag2aNeutral.xlsx
+++ b/Data/IMUReadingsClip/DefenderDrag2aNeutral.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="accel" sheetId="2" r:id="rId3"/>
     <sheet name="orientation" sheetId="3" r:id="rId5"/>
+    <sheet name="gyro" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>utcTimeMillis</t>
   </si>
@@ -112,6 +113,69 @@
   <si>
     <t>pitchDeg</t>
   </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>UncalAccelXMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelYMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelZMps2</t>
+  </si>
+  <si>
+    <t>BiasXMps2</t>
+  </si>
+  <si>
+    <t>BiasYMps2</t>
+  </si>
+  <si>
+    <t>BiasZMps2</t>
+  </si>
+  <si>
+    <t>CalAccelXMps2</t>
+  </si>
+  <si>
+    <t>CalAccelYMps2</t>
+  </si>
+  <si>
+    <t>CalAccelZMps2</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -143,16 +207,22 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,37 +250,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -16121,19 +16191,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -23856,4 +23926,7755 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E455"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="20.16796875" customWidth="true"/>
+    <col min="3" max="3" width="7.7109375" customWidth="true"/>
+    <col min="4" max="4" width="7.07421875" customWidth="true"/>
+    <col min="5" max="5" width="8.44140625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1676592275943</v>
+      </c>
+      <c r="B2" s="0">
+        <v>29332765320165</v>
+      </c>
+      <c r="C2" s="0">
+        <v>222</v>
+      </c>
+      <c r="D2" s="0">
+        <v>-116</v>
+      </c>
+      <c r="E2" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1676592275951</v>
+      </c>
+      <c r="B3" s="0">
+        <v>29332773816259</v>
+      </c>
+      <c r="C3" s="0">
+        <v>222</v>
+      </c>
+      <c r="D3" s="0">
+        <v>-116</v>
+      </c>
+      <c r="E3" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>1676592275960</v>
+      </c>
+      <c r="B4" s="0">
+        <v>29332782296300</v>
+      </c>
+      <c r="C4" s="0">
+        <v>222</v>
+      </c>
+      <c r="D4" s="0">
+        <v>-116</v>
+      </c>
+      <c r="E4" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>1676592275968</v>
+      </c>
+      <c r="B5" s="0">
+        <v>29332790779364</v>
+      </c>
+      <c r="C5" s="0">
+        <v>222</v>
+      </c>
+      <c r="D5" s="0">
+        <v>-116</v>
+      </c>
+      <c r="E5" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1676592275977</v>
+      </c>
+      <c r="B6" s="0">
+        <v>29332799257605</v>
+      </c>
+      <c r="C6" s="0">
+        <v>222</v>
+      </c>
+      <c r="D6" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E6" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1676592275985</v>
+      </c>
+      <c r="B7" s="0">
+        <v>29332807735347</v>
+      </c>
+      <c r="C7" s="0">
+        <v>223</v>
+      </c>
+      <c r="D7" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E7" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>1676592275994</v>
+      </c>
+      <c r="B8" s="0">
+        <v>29332816213446</v>
+      </c>
+      <c r="C8" s="0">
+        <v>223</v>
+      </c>
+      <c r="D8" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E8" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>1676592276002</v>
+      </c>
+      <c r="B9" s="0">
+        <v>29332824698564</v>
+      </c>
+      <c r="C9" s="0">
+        <v>223</v>
+      </c>
+      <c r="D9" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E9" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>1676592276011</v>
+      </c>
+      <c r="B10" s="0">
+        <v>29332833184078</v>
+      </c>
+      <c r="C10" s="0">
+        <v>223</v>
+      </c>
+      <c r="D10" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E10" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>1676592276019</v>
+      </c>
+      <c r="B11" s="0">
+        <v>29332841649259</v>
+      </c>
+      <c r="C11" s="0">
+        <v>223</v>
+      </c>
+      <c r="D11" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E11" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>1676592276028</v>
+      </c>
+      <c r="B12" s="0">
+        <v>29332850140134</v>
+      </c>
+      <c r="C12" s="0">
+        <v>224</v>
+      </c>
+      <c r="D12" s="0">
+        <v>-118</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>1676592276036</v>
+      </c>
+      <c r="B13" s="0">
+        <v>29332858620471</v>
+      </c>
+      <c r="C13" s="0">
+        <v>224</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-118</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>1676592276045</v>
+      </c>
+      <c r="B14" s="0">
+        <v>29332867098183</v>
+      </c>
+      <c r="C14" s="0">
+        <v>224</v>
+      </c>
+      <c r="D14" s="0">
+        <v>-118</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>1676592276053</v>
+      </c>
+      <c r="B15" s="0">
+        <v>29332875571591</v>
+      </c>
+      <c r="C15" s="0">
+        <v>225</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-118</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>1676592276062</v>
+      </c>
+      <c r="B16" s="0">
+        <v>29332884062020</v>
+      </c>
+      <c r="C16" s="0">
+        <v>225</v>
+      </c>
+      <c r="D16" s="0">
+        <v>-118</v>
+      </c>
+      <c r="E16" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>1676592276070</v>
+      </c>
+      <c r="B17" s="0">
+        <v>29332892542285</v>
+      </c>
+      <c r="C17" s="0">
+        <v>225</v>
+      </c>
+      <c r="D17" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E17" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>1676592276079</v>
+      </c>
+      <c r="B18" s="0">
+        <v>29332901024606</v>
+      </c>
+      <c r="C18" s="0">
+        <v>225</v>
+      </c>
+      <c r="D18" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E18" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>1676592276087</v>
+      </c>
+      <c r="B19" s="0">
+        <v>29332909503620</v>
+      </c>
+      <c r="C19" s="0">
+        <v>226</v>
+      </c>
+      <c r="D19" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E19" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>1676592276095</v>
+      </c>
+      <c r="B20" s="0">
+        <v>29332917982004</v>
+      </c>
+      <c r="C20" s="0">
+        <v>226</v>
+      </c>
+      <c r="D20" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E20" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>1676592276104</v>
+      </c>
+      <c r="B21" s="0">
+        <v>29332926460336</v>
+      </c>
+      <c r="C21" s="0">
+        <v>226</v>
+      </c>
+      <c r="D21" s="0">
+        <v>-116</v>
+      </c>
+      <c r="E21" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>1676592276112</v>
+      </c>
+      <c r="B22" s="0">
+        <v>29332934944935</v>
+      </c>
+      <c r="C22" s="0">
+        <v>226</v>
+      </c>
+      <c r="D22" s="0">
+        <v>-116</v>
+      </c>
+      <c r="E22" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>1676592276121</v>
+      </c>
+      <c r="B23" s="0">
+        <v>29332943426309</v>
+      </c>
+      <c r="C23" s="0">
+        <v>226</v>
+      </c>
+      <c r="D23" s="0">
+        <v>-115</v>
+      </c>
+      <c r="E23" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>1676592276129</v>
+      </c>
+      <c r="B24" s="0">
+        <v>29332951896495</v>
+      </c>
+      <c r="C24" s="0">
+        <v>226</v>
+      </c>
+      <c r="D24" s="0">
+        <v>-114</v>
+      </c>
+      <c r="E24" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>1676592276138</v>
+      </c>
+      <c r="B25" s="0">
+        <v>29332960381938</v>
+      </c>
+      <c r="C25" s="0">
+        <v>226</v>
+      </c>
+      <c r="D25" s="0">
+        <v>-113</v>
+      </c>
+      <c r="E25" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>1676592276146</v>
+      </c>
+      <c r="B26" s="0">
+        <v>29332968866556</v>
+      </c>
+      <c r="C26" s="0">
+        <v>226</v>
+      </c>
+      <c r="D26" s="0">
+        <v>-112</v>
+      </c>
+      <c r="E26" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>1676592276155</v>
+      </c>
+      <c r="B27" s="0">
+        <v>29332977351502</v>
+      </c>
+      <c r="C27" s="0">
+        <v>226</v>
+      </c>
+      <c r="D27" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E27" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>1676592276163</v>
+      </c>
+      <c r="B28" s="0">
+        <v>29332985817638</v>
+      </c>
+      <c r="C28" s="0">
+        <v>227</v>
+      </c>
+      <c r="D28" s="0">
+        <v>-110</v>
+      </c>
+      <c r="E28" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>1676592276172</v>
+      </c>
+      <c r="B29" s="0">
+        <v>29332994304556</v>
+      </c>
+      <c r="C29" s="0">
+        <v>227</v>
+      </c>
+      <c r="D29" s="0">
+        <v>-109</v>
+      </c>
+      <c r="E29" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>1676592276180</v>
+      </c>
+      <c r="B30" s="0">
+        <v>29333002788961</v>
+      </c>
+      <c r="C30" s="0">
+        <v>227</v>
+      </c>
+      <c r="D30" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E30" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>1676592276189</v>
+      </c>
+      <c r="B31" s="0">
+        <v>29333011266837</v>
+      </c>
+      <c r="C31" s="0">
+        <v>227</v>
+      </c>
+      <c r="D31" s="0">
+        <v>-107</v>
+      </c>
+      <c r="E31" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>1676592276197</v>
+      </c>
+      <c r="B32" s="0">
+        <v>29333019744752</v>
+      </c>
+      <c r="C32" s="0">
+        <v>227</v>
+      </c>
+      <c r="D32" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E32" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>1676592276206</v>
+      </c>
+      <c r="B33" s="0">
+        <v>29333028232332</v>
+      </c>
+      <c r="C33" s="0">
+        <v>227</v>
+      </c>
+      <c r="D33" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E33" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>1676592276214</v>
+      </c>
+      <c r="B34" s="0">
+        <v>29333036710451</v>
+      </c>
+      <c r="C34" s="0">
+        <v>227</v>
+      </c>
+      <c r="D34" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E34" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>1676592276223</v>
+      </c>
+      <c r="B35" s="0">
+        <v>29333045184226</v>
+      </c>
+      <c r="C35" s="0">
+        <v>226</v>
+      </c>
+      <c r="D35" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E35" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>1676592276231</v>
+      </c>
+      <c r="B36" s="0">
+        <v>29333053653667</v>
+      </c>
+      <c r="C36" s="0">
+        <v>227</v>
+      </c>
+      <c r="D36" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E36" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>1676592276240</v>
+      </c>
+      <c r="B37" s="0">
+        <v>29333062151380</v>
+      </c>
+      <c r="C37" s="0">
+        <v>227</v>
+      </c>
+      <c r="D37" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E37" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>1676592276248</v>
+      </c>
+      <c r="B38" s="0">
+        <v>29333070635135</v>
+      </c>
+      <c r="C38" s="0">
+        <v>227</v>
+      </c>
+      <c r="D38" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E38" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>1676592276257</v>
+      </c>
+      <c r="B39" s="0">
+        <v>29333079113192</v>
+      </c>
+      <c r="C39" s="0">
+        <v>227</v>
+      </c>
+      <c r="D39" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E39" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>1676592276265</v>
+      </c>
+      <c r="B40" s="0">
+        <v>29333087591118</v>
+      </c>
+      <c r="C40" s="0">
+        <v>227</v>
+      </c>
+      <c r="D40" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E40" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>1676592276274</v>
+      </c>
+      <c r="B41" s="0">
+        <v>29333096073490</v>
+      </c>
+      <c r="C41" s="0">
+        <v>227</v>
+      </c>
+      <c r="D41" s="0">
+        <v>-101</v>
+      </c>
+      <c r="E41" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>1676592276282</v>
+      </c>
+      <c r="B42" s="0">
+        <v>29333104553165</v>
+      </c>
+      <c r="C42" s="0">
+        <v>227</v>
+      </c>
+      <c r="D42" s="0">
+        <v>-101</v>
+      </c>
+      <c r="E42" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>1676592276291</v>
+      </c>
+      <c r="B43" s="0">
+        <v>29333113030958</v>
+      </c>
+      <c r="C43" s="0">
+        <v>227</v>
+      </c>
+      <c r="D43" s="0">
+        <v>-101</v>
+      </c>
+      <c r="E43" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>1676592276299</v>
+      </c>
+      <c r="B44" s="0">
+        <v>29333121515284</v>
+      </c>
+      <c r="C44" s="0">
+        <v>228</v>
+      </c>
+      <c r="D44" s="0">
+        <v>-100</v>
+      </c>
+      <c r="E44" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>1676592276307</v>
+      </c>
+      <c r="B45" s="0">
+        <v>29333129993961</v>
+      </c>
+      <c r="C45" s="0">
+        <v>228</v>
+      </c>
+      <c r="D45" s="0">
+        <v>-100</v>
+      </c>
+      <c r="E45" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>1676592276316</v>
+      </c>
+      <c r="B46" s="0">
+        <v>29333138477411</v>
+      </c>
+      <c r="C46" s="0">
+        <v>228</v>
+      </c>
+      <c r="D46" s="0">
+        <v>-100</v>
+      </c>
+      <c r="E46" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>1676592276324</v>
+      </c>
+      <c r="B47" s="0">
+        <v>29333146956863</v>
+      </c>
+      <c r="C47" s="0">
+        <v>228</v>
+      </c>
+      <c r="D47" s="0">
+        <v>-100</v>
+      </c>
+      <c r="E47" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>1676592276333</v>
+      </c>
+      <c r="B48" s="0">
+        <v>29333155425959</v>
+      </c>
+      <c r="C48" s="0">
+        <v>228</v>
+      </c>
+      <c r="D48" s="0">
+        <v>-100</v>
+      </c>
+      <c r="E48" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>1676592276341</v>
+      </c>
+      <c r="B49" s="0">
+        <v>29333163896896</v>
+      </c>
+      <c r="C49" s="0">
+        <v>228</v>
+      </c>
+      <c r="D49" s="0">
+        <v>-100</v>
+      </c>
+      <c r="E49" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>1676592276350</v>
+      </c>
+      <c r="B50" s="0">
+        <v>29333172397740</v>
+      </c>
+      <c r="C50" s="0">
+        <v>227</v>
+      </c>
+      <c r="D50" s="0">
+        <v>-100</v>
+      </c>
+      <c r="E50" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>1676592276358</v>
+      </c>
+      <c r="B51" s="0">
+        <v>29333180880081</v>
+      </c>
+      <c r="C51" s="0">
+        <v>227</v>
+      </c>
+      <c r="D51" s="0">
+        <v>-100</v>
+      </c>
+      <c r="E51" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>1676592276367</v>
+      </c>
+      <c r="B52" s="0">
+        <v>29333189349177</v>
+      </c>
+      <c r="C52" s="0">
+        <v>227</v>
+      </c>
+      <c r="D52" s="0">
+        <v>-100</v>
+      </c>
+      <c r="E52" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>1676592276375</v>
+      </c>
+      <c r="B53" s="0">
+        <v>29333197839819</v>
+      </c>
+      <c r="C53" s="0">
+        <v>226</v>
+      </c>
+      <c r="D53" s="0">
+        <v>-101</v>
+      </c>
+      <c r="E53" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>1676592276384</v>
+      </c>
+      <c r="B54" s="0">
+        <v>29333206319952</v>
+      </c>
+      <c r="C54" s="0">
+        <v>226</v>
+      </c>
+      <c r="D54" s="0">
+        <v>-101</v>
+      </c>
+      <c r="E54" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>1676592276392</v>
+      </c>
+      <c r="B55" s="0">
+        <v>29333214800625</v>
+      </c>
+      <c r="C55" s="0">
+        <v>225</v>
+      </c>
+      <c r="D55" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E55" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>1676592276401</v>
+      </c>
+      <c r="B56" s="0">
+        <v>29333223280554</v>
+      </c>
+      <c r="C56" s="0">
+        <v>225</v>
+      </c>
+      <c r="D56" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E56" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>1676592276409</v>
+      </c>
+      <c r="B57" s="0">
+        <v>29333231760932</v>
+      </c>
+      <c r="C57" s="0">
+        <v>224</v>
+      </c>
+      <c r="D57" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E57" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>1676592276418</v>
+      </c>
+      <c r="B58" s="0">
+        <v>29333240240943</v>
+      </c>
+      <c r="C58" s="0">
+        <v>223</v>
+      </c>
+      <c r="D58" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E58" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>1676592276426</v>
+      </c>
+      <c r="B59" s="0">
+        <v>29333248721717</v>
+      </c>
+      <c r="C59" s="0">
+        <v>222</v>
+      </c>
+      <c r="D59" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E59" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>1676592276435</v>
+      </c>
+      <c r="B60" s="0">
+        <v>29333257203305</v>
+      </c>
+      <c r="C60" s="0">
+        <v>221</v>
+      </c>
+      <c r="D60" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E60" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>1676592276443</v>
+      </c>
+      <c r="B61" s="0">
+        <v>29333265683337</v>
+      </c>
+      <c r="C61" s="0">
+        <v>220</v>
+      </c>
+      <c r="D61" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E61" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>1676592276452</v>
+      </c>
+      <c r="B62" s="0">
+        <v>29333274153002</v>
+      </c>
+      <c r="C62" s="0">
+        <v>219</v>
+      </c>
+      <c r="D62" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E62" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>1676592276460</v>
+      </c>
+      <c r="B63" s="0">
+        <v>29333282644335</v>
+      </c>
+      <c r="C63" s="0">
+        <v>219</v>
+      </c>
+      <c r="D63" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E63" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>1676592276469</v>
+      </c>
+      <c r="B64" s="0">
+        <v>29333291121509</v>
+      </c>
+      <c r="C64" s="0">
+        <v>218</v>
+      </c>
+      <c r="D64" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E64" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>1676592276477</v>
+      </c>
+      <c r="B65" s="0">
+        <v>29333299604654</v>
+      </c>
+      <c r="C65" s="0">
+        <v>218</v>
+      </c>
+      <c r="D65" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E65" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>1676592276486</v>
+      </c>
+      <c r="B66" s="0">
+        <v>29333308081318</v>
+      </c>
+      <c r="C66" s="0">
+        <v>217</v>
+      </c>
+      <c r="D66" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E66" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>1676592276494</v>
+      </c>
+      <c r="B67" s="0">
+        <v>29333316559375</v>
+      </c>
+      <c r="C67" s="0">
+        <v>217</v>
+      </c>
+      <c r="D67" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E67" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>1676592276503</v>
+      </c>
+      <c r="B68" s="0">
+        <v>29333325036741</v>
+      </c>
+      <c r="C68" s="0">
+        <v>217</v>
+      </c>
+      <c r="D68" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E68" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>1676592276511</v>
+      </c>
+      <c r="B69" s="0">
+        <v>29333333526590</v>
+      </c>
+      <c r="C69" s="0">
+        <v>217</v>
+      </c>
+      <c r="D69" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E69" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>1676592276520</v>
+      </c>
+      <c r="B70" s="0">
+        <v>29333342007364</v>
+      </c>
+      <c r="C70" s="0">
+        <v>217</v>
+      </c>
+      <c r="D70" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E70" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>1676592276528</v>
+      </c>
+      <c r="B71" s="0">
+        <v>29333350488006</v>
+      </c>
+      <c r="C71" s="0">
+        <v>218</v>
+      </c>
+      <c r="D71" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E71" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>1676592276536</v>
+      </c>
+      <c r="B72" s="0">
+        <v>29333358967163</v>
+      </c>
+      <c r="C72" s="0">
+        <v>218</v>
+      </c>
+      <c r="D72" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E72" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>1676592276545</v>
+      </c>
+      <c r="B73" s="0">
+        <v>29333367448476</v>
+      </c>
+      <c r="C73" s="0">
+        <v>218</v>
+      </c>
+      <c r="D73" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E73" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>1676592276553</v>
+      </c>
+      <c r="B74" s="0">
+        <v>29333375926819</v>
+      </c>
+      <c r="C74" s="0">
+        <v>219</v>
+      </c>
+      <c r="D74" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E74" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>1676592276562</v>
+      </c>
+      <c r="B75" s="0">
+        <v>29333384409922</v>
+      </c>
+      <c r="C75" s="0">
+        <v>219</v>
+      </c>
+      <c r="D75" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E75" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>1676592276570</v>
+      </c>
+      <c r="B76" s="0">
+        <v>29333392878356</v>
+      </c>
+      <c r="C76" s="0">
+        <v>219</v>
+      </c>
+      <c r="D76" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E76" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>1676592276579</v>
+      </c>
+      <c r="B77" s="0">
+        <v>29333401370241</v>
+      </c>
+      <c r="C77" s="0">
+        <v>219</v>
+      </c>
+      <c r="D77" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E77" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>1676592276587</v>
+      </c>
+      <c r="B78" s="0">
+        <v>29333409852113</v>
+      </c>
+      <c r="C78" s="0">
+        <v>220</v>
+      </c>
+      <c r="D78" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E78" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>1676592276596</v>
+      </c>
+      <c r="B79" s="0">
+        <v>29333418320945</v>
+      </c>
+      <c r="C79" s="0">
+        <v>220</v>
+      </c>
+      <c r="D79" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E79" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>1676592276605</v>
+      </c>
+      <c r="B80" s="0">
+        <v>29333426811697</v>
+      </c>
+      <c r="C80" s="0">
+        <v>220</v>
+      </c>
+      <c r="D80" s="0">
+        <v>-107</v>
+      </c>
+      <c r="E80" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>1676592276613</v>
+      </c>
+      <c r="B81" s="0">
+        <v>29333435289755</v>
+      </c>
+      <c r="C81" s="0">
+        <v>221</v>
+      </c>
+      <c r="D81" s="0">
+        <v>-107</v>
+      </c>
+      <c r="E81" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>1676592276621</v>
+      </c>
+      <c r="B82" s="0">
+        <v>29333443772706</v>
+      </c>
+      <c r="C82" s="0">
+        <v>221</v>
+      </c>
+      <c r="D82" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E82" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>1676592276630</v>
+      </c>
+      <c r="B83" s="0">
+        <v>29333452242729</v>
+      </c>
+      <c r="C83" s="0">
+        <v>221</v>
+      </c>
+      <c r="D83" s="0">
+        <v>-109</v>
+      </c>
+      <c r="E83" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>1676592276638</v>
+      </c>
+      <c r="B84" s="0">
+        <v>29333460733706</v>
+      </c>
+      <c r="C84" s="0">
+        <v>221</v>
+      </c>
+      <c r="D84" s="0">
+        <v>-109</v>
+      </c>
+      <c r="E84" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>1676592276647</v>
+      </c>
+      <c r="B85" s="0">
+        <v>29333469213982</v>
+      </c>
+      <c r="C85" s="0">
+        <v>221</v>
+      </c>
+      <c r="D85" s="0">
+        <v>-110</v>
+      </c>
+      <c r="E85" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>1676592276655</v>
+      </c>
+      <c r="B86" s="0">
+        <v>29333477695040</v>
+      </c>
+      <c r="C86" s="0">
+        <v>221</v>
+      </c>
+      <c r="D86" s="0">
+        <v>-110</v>
+      </c>
+      <c r="E86" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>1676592276664</v>
+      </c>
+      <c r="B87" s="0">
+        <v>29333486164787</v>
+      </c>
+      <c r="C87" s="0">
+        <v>221</v>
+      </c>
+      <c r="D87" s="0">
+        <v>-110</v>
+      </c>
+      <c r="E87" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>1676592276672</v>
+      </c>
+      <c r="B88" s="0">
+        <v>29333494655500</v>
+      </c>
+      <c r="C88" s="0">
+        <v>221</v>
+      </c>
+      <c r="D88" s="0">
+        <v>-110</v>
+      </c>
+      <c r="E88" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>1676592276681</v>
+      </c>
+      <c r="B89" s="0">
+        <v>29333503131717</v>
+      </c>
+      <c r="C89" s="0">
+        <v>220</v>
+      </c>
+      <c r="D89" s="0">
+        <v>-109</v>
+      </c>
+      <c r="E89" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>1676592276689</v>
+      </c>
+      <c r="B90" s="0">
+        <v>29333511616449</v>
+      </c>
+      <c r="C90" s="0">
+        <v>220</v>
+      </c>
+      <c r="D90" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E90" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>1676592276698</v>
+      </c>
+      <c r="B91" s="0">
+        <v>29333520098108</v>
+      </c>
+      <c r="C91" s="0">
+        <v>220</v>
+      </c>
+      <c r="D91" s="0">
+        <v>-107</v>
+      </c>
+      <c r="E91" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>1676592276706</v>
+      </c>
+      <c r="B92" s="0">
+        <v>29333528577478</v>
+      </c>
+      <c r="C92" s="0">
+        <v>221</v>
+      </c>
+      <c r="D92" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E92" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>1676592276715</v>
+      </c>
+      <c r="B93" s="0">
+        <v>29333537055241</v>
+      </c>
+      <c r="C93" s="0">
+        <v>221</v>
+      </c>
+      <c r="D93" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E93" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>1676592276723</v>
+      </c>
+      <c r="B94" s="0">
+        <v>29333545538538</v>
+      </c>
+      <c r="C94" s="0">
+        <v>221</v>
+      </c>
+      <c r="D94" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E94" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>1676592276733</v>
+      </c>
+      <c r="B95" s="0">
+        <v>29333554018213</v>
+      </c>
+      <c r="C95" s="0">
+        <v>221</v>
+      </c>
+      <c r="D95" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E95" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>1676592276740</v>
+      </c>
+      <c r="B96" s="0">
+        <v>29333562487492</v>
+      </c>
+      <c r="C96" s="0">
+        <v>221</v>
+      </c>
+      <c r="D96" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E96" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>1676592276748</v>
+      </c>
+      <c r="B97" s="0">
+        <v>29333570970464</v>
+      </c>
+      <c r="C97" s="0">
+        <v>221</v>
+      </c>
+      <c r="D97" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E97" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>1676592276757</v>
+      </c>
+      <c r="B98" s="0">
+        <v>29333579461045</v>
+      </c>
+      <c r="C98" s="0">
+        <v>221</v>
+      </c>
+      <c r="D98" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E98" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>1676592276765</v>
+      </c>
+      <c r="B99" s="0">
+        <v>29333587938187</v>
+      </c>
+      <c r="C99" s="0">
+        <v>221</v>
+      </c>
+      <c r="D99" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E99" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>1676592276774</v>
+      </c>
+      <c r="B100" s="0">
+        <v>29333596410548</v>
+      </c>
+      <c r="C100" s="0">
+        <v>221</v>
+      </c>
+      <c r="D100" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E100" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>1676592276782</v>
+      </c>
+      <c r="B101" s="0">
+        <v>29333604902594</v>
+      </c>
+      <c r="C101" s="0">
+        <v>221</v>
+      </c>
+      <c r="D101" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E101" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>1676592276791</v>
+      </c>
+      <c r="B102" s="0">
+        <v>29333613382483</v>
+      </c>
+      <c r="C102" s="0">
+        <v>220</v>
+      </c>
+      <c r="D102" s="0">
+        <v>-107</v>
+      </c>
+      <c r="E102" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>1676592276799</v>
+      </c>
+      <c r="B103" s="0">
+        <v>29333621863014</v>
+      </c>
+      <c r="C103" s="0">
+        <v>220</v>
+      </c>
+      <c r="D103" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E103" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>1676592276808</v>
+      </c>
+      <c r="B104" s="0">
+        <v>29333630340247</v>
+      </c>
+      <c r="C104" s="0">
+        <v>219</v>
+      </c>
+      <c r="D104" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E104" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>1676592276816</v>
+      </c>
+      <c r="B105" s="0">
+        <v>29333638823687</v>
+      </c>
+      <c r="C105" s="0">
+        <v>219</v>
+      </c>
+      <c r="D105" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E105" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>1676592276825</v>
+      </c>
+      <c r="B106" s="0">
+        <v>29333647307695</v>
+      </c>
+      <c r="C106" s="0">
+        <v>218</v>
+      </c>
+      <c r="D106" s="0">
+        <v>-109</v>
+      </c>
+      <c r="E106" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>1676592276833</v>
+      </c>
+      <c r="B107" s="0">
+        <v>29333655784787</v>
+      </c>
+      <c r="C107" s="0">
+        <v>217</v>
+      </c>
+      <c r="D107" s="0">
+        <v>-109</v>
+      </c>
+      <c r="E107" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>1676592276842</v>
+      </c>
+      <c r="B108" s="0">
+        <v>29333664263740</v>
+      </c>
+      <c r="C108" s="0">
+        <v>216</v>
+      </c>
+      <c r="D108" s="0">
+        <v>-109</v>
+      </c>
+      <c r="E108" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>1676592276850</v>
+      </c>
+      <c r="B109" s="0">
+        <v>29333672734393</v>
+      </c>
+      <c r="C109" s="0">
+        <v>215</v>
+      </c>
+      <c r="D109" s="0">
+        <v>-109</v>
+      </c>
+      <c r="E109" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>1676592276859</v>
+      </c>
+      <c r="B110" s="0">
+        <v>29333681226998</v>
+      </c>
+      <c r="C110" s="0">
+        <v>215</v>
+      </c>
+      <c r="D110" s="0">
+        <v>-109</v>
+      </c>
+      <c r="E110" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>1676592276867</v>
+      </c>
+      <c r="B111" s="0">
+        <v>29333689705462</v>
+      </c>
+      <c r="C111" s="0">
+        <v>214</v>
+      </c>
+      <c r="D111" s="0">
+        <v>-109</v>
+      </c>
+      <c r="E111" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>1676592276876</v>
+      </c>
+      <c r="B112" s="0">
+        <v>29333698175464</v>
+      </c>
+      <c r="C112" s="0">
+        <v>213</v>
+      </c>
+      <c r="D112" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E112" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>1676592276884</v>
+      </c>
+      <c r="B113" s="0">
+        <v>29333706651497</v>
+      </c>
+      <c r="C113" s="0">
+        <v>212</v>
+      </c>
+      <c r="D113" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E113" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>1676592276893</v>
+      </c>
+      <c r="B114" s="0">
+        <v>29333715147459</v>
+      </c>
+      <c r="C114" s="0">
+        <v>211</v>
+      </c>
+      <c r="D114" s="0">
+        <v>-107</v>
+      </c>
+      <c r="E114" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>1676592276901</v>
+      </c>
+      <c r="B115" s="0">
+        <v>29333723628446</v>
+      </c>
+      <c r="C115" s="0">
+        <v>211</v>
+      </c>
+      <c r="D115" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E115" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>1676592276910</v>
+      </c>
+      <c r="B116" s="0">
+        <v>29333732108683</v>
+      </c>
+      <c r="C116" s="0">
+        <v>211</v>
+      </c>
+      <c r="D116" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E116" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>1676592276918</v>
+      </c>
+      <c r="B117" s="0">
+        <v>29333740571339</v>
+      </c>
+      <c r="C117" s="0">
+        <v>212</v>
+      </c>
+      <c r="D117" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E117" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
+        <v>1676592276927</v>
+      </c>
+      <c r="B118" s="0">
+        <v>29333749067159</v>
+      </c>
+      <c r="C118" s="0">
+        <v>212</v>
+      </c>
+      <c r="D118" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E118" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
+        <v>1676592276935</v>
+      </c>
+      <c r="B119" s="0">
+        <v>29333757547352</v>
+      </c>
+      <c r="C119" s="0">
+        <v>212</v>
+      </c>
+      <c r="D119" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E119" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
+        <v>1676592276944</v>
+      </c>
+      <c r="B120" s="0">
+        <v>29333766032776</v>
+      </c>
+      <c r="C120" s="0">
+        <v>213</v>
+      </c>
+      <c r="D120" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E120" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
+        <v>1676592276953</v>
+      </c>
+      <c r="B121" s="0">
+        <v>29333774510529</v>
+      </c>
+      <c r="C121" s="0">
+        <v>213</v>
+      </c>
+      <c r="D121" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E121" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
+        <v>1676592276960</v>
+      </c>
+      <c r="B122" s="0">
+        <v>29333782989003</v>
+      </c>
+      <c r="C122" s="0">
+        <v>214</v>
+      </c>
+      <c r="D122" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E122" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0">
+        <v>1676592276969</v>
+      </c>
+      <c r="B123" s="0">
+        <v>29333791472077</v>
+      </c>
+      <c r="C123" s="0">
+        <v>214</v>
+      </c>
+      <c r="D123" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E123" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0">
+        <v>1676592276977</v>
+      </c>
+      <c r="B124" s="0">
+        <v>29333799952383</v>
+      </c>
+      <c r="C124" s="0">
+        <v>214</v>
+      </c>
+      <c r="D124" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E124" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0">
+        <v>1676592276986</v>
+      </c>
+      <c r="B125" s="0">
+        <v>29333808432363</v>
+      </c>
+      <c r="C125" s="0">
+        <v>215</v>
+      </c>
+      <c r="D125" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E125" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0">
+        <v>1676592276994</v>
+      </c>
+      <c r="B126" s="0">
+        <v>29333816913636</v>
+      </c>
+      <c r="C126" s="0">
+        <v>215</v>
+      </c>
+      <c r="D126" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E126" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0">
+        <v>1676592277003</v>
+      </c>
+      <c r="B127" s="0">
+        <v>29333825380687</v>
+      </c>
+      <c r="C127" s="0">
+        <v>216</v>
+      </c>
+      <c r="D127" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E127" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0">
+        <v>1676592277011</v>
+      </c>
+      <c r="B128" s="0">
+        <v>29333833873730</v>
+      </c>
+      <c r="C128" s="0">
+        <v>217</v>
+      </c>
+      <c r="D128" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E128" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0">
+        <v>1676592277020</v>
+      </c>
+      <c r="B129" s="0">
+        <v>29333842357107</v>
+      </c>
+      <c r="C129" s="0">
+        <v>218</v>
+      </c>
+      <c r="D129" s="0">
+        <v>-107</v>
+      </c>
+      <c r="E129" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0">
+        <v>1676592277028</v>
+      </c>
+      <c r="B130" s="0">
+        <v>29333850832542</v>
+      </c>
+      <c r="C130" s="0">
+        <v>219</v>
+      </c>
+      <c r="D130" s="0">
+        <v>-107</v>
+      </c>
+      <c r="E130" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0">
+        <v>1676592277037</v>
+      </c>
+      <c r="B131" s="0">
+        <v>29333859315889</v>
+      </c>
+      <c r="C131" s="0">
+        <v>219</v>
+      </c>
+      <c r="D131" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E131" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0">
+        <v>1676592277045</v>
+      </c>
+      <c r="B132" s="0">
+        <v>29333867798363</v>
+      </c>
+      <c r="C132" s="0">
+        <v>220</v>
+      </c>
+      <c r="D132" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E132" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0">
+        <v>1676592277054</v>
+      </c>
+      <c r="B133" s="0">
+        <v>29333876265963</v>
+      </c>
+      <c r="C133" s="0">
+        <v>221</v>
+      </c>
+      <c r="D133" s="0">
+        <v>-109</v>
+      </c>
+      <c r="E133" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0">
+        <v>1676592277062</v>
+      </c>
+      <c r="B134" s="0">
+        <v>29333884746533</v>
+      </c>
+      <c r="C134" s="0">
+        <v>222</v>
+      </c>
+      <c r="D134" s="0">
+        <v>-110</v>
+      </c>
+      <c r="E134" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0">
+        <v>1676592277071</v>
+      </c>
+      <c r="B135" s="0">
+        <v>29333893237694</v>
+      </c>
+      <c r="C135" s="0">
+        <v>223</v>
+      </c>
+      <c r="D135" s="0">
+        <v>-109</v>
+      </c>
+      <c r="E135" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0">
+        <v>1676592277079</v>
+      </c>
+      <c r="B136" s="0">
+        <v>29333901717767</v>
+      </c>
+      <c r="C136" s="0">
+        <v>223</v>
+      </c>
+      <c r="D136" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E136" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0">
+        <v>1676592277088</v>
+      </c>
+      <c r="B137" s="0">
+        <v>29333910198022</v>
+      </c>
+      <c r="C137" s="0">
+        <v>224</v>
+      </c>
+      <c r="D137" s="0">
+        <v>-107</v>
+      </c>
+      <c r="E137" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0">
+        <v>1676592277096</v>
+      </c>
+      <c r="B138" s="0">
+        <v>29333918678063</v>
+      </c>
+      <c r="C138" s="0">
+        <v>224</v>
+      </c>
+      <c r="D138" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E138" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0">
+        <v>1676592277105</v>
+      </c>
+      <c r="B139" s="0">
+        <v>29333927159427</v>
+      </c>
+      <c r="C139" s="0">
+        <v>225</v>
+      </c>
+      <c r="D139" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E139" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0">
+        <v>1676592277113</v>
+      </c>
+      <c r="B140" s="0">
+        <v>29333935642734</v>
+      </c>
+      <c r="C140" s="0">
+        <v>225</v>
+      </c>
+      <c r="D140" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E140" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0">
+        <v>1676592277122</v>
+      </c>
+      <c r="B141" s="0">
+        <v>29333944119765</v>
+      </c>
+      <c r="C141" s="0">
+        <v>226</v>
+      </c>
+      <c r="D141" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E141" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0">
+        <v>1676592277130</v>
+      </c>
+      <c r="B142" s="0">
+        <v>29333952587487</v>
+      </c>
+      <c r="C142" s="0">
+        <v>225</v>
+      </c>
+      <c r="D142" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E142" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0">
+        <v>1676592277139</v>
+      </c>
+      <c r="B143" s="0">
+        <v>29333961078943</v>
+      </c>
+      <c r="C143" s="0">
+        <v>225</v>
+      </c>
+      <c r="D143" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E143" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0">
+        <v>1676592277147</v>
+      </c>
+      <c r="B144" s="0">
+        <v>29333969550837</v>
+      </c>
+      <c r="C144" s="0">
+        <v>224</v>
+      </c>
+      <c r="D144" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E144" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0">
+        <v>1676592277156</v>
+      </c>
+      <c r="B145" s="0">
+        <v>29333978035273</v>
+      </c>
+      <c r="C145" s="0">
+        <v>223</v>
+      </c>
+      <c r="D145" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E145" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0">
+        <v>1676592277164</v>
+      </c>
+      <c r="B146" s="0">
+        <v>29333986526484</v>
+      </c>
+      <c r="C146" s="0">
+        <v>222</v>
+      </c>
+      <c r="D146" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E146" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0">
+        <v>1676592277174</v>
+      </c>
+      <c r="B147" s="0">
+        <v>29333995000656</v>
+      </c>
+      <c r="C147" s="0">
+        <v>221</v>
+      </c>
+      <c r="D147" s="0">
+        <v>-101</v>
+      </c>
+      <c r="E147" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0">
+        <v>1676592277181</v>
+      </c>
+      <c r="B148" s="0">
+        <v>29334003480982</v>
+      </c>
+      <c r="C148" s="0">
+        <v>220</v>
+      </c>
+      <c r="D148" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E148" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0">
+        <v>1676592277189</v>
+      </c>
+      <c r="B149" s="0">
+        <v>29334011962978</v>
+      </c>
+      <c r="C149" s="0">
+        <v>219</v>
+      </c>
+      <c r="D149" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E149" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0">
+        <v>1676592277198</v>
+      </c>
+      <c r="B150" s="0">
+        <v>29334020442908</v>
+      </c>
+      <c r="C150" s="0">
+        <v>218</v>
+      </c>
+      <c r="D150" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E150" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
+        <v>1676592277206</v>
+      </c>
+      <c r="B151" s="0">
+        <v>29334028925625</v>
+      </c>
+      <c r="C151" s="0">
+        <v>218</v>
+      </c>
+      <c r="D151" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E151" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
+        <v>1676592277215</v>
+      </c>
+      <c r="B152" s="0">
+        <v>29334037405178</v>
+      </c>
+      <c r="C152" s="0">
+        <v>217</v>
+      </c>
+      <c r="D152" s="0">
+        <v>-107</v>
+      </c>
+      <c r="E152" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
+        <v>1676592277223</v>
+      </c>
+      <c r="B153" s="0">
+        <v>29334045885454</v>
+      </c>
+      <c r="C153" s="0">
+        <v>216</v>
+      </c>
+      <c r="D153" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E153" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
+        <v>1676592277232</v>
+      </c>
+      <c r="B154" s="0">
+        <v>29334054366289</v>
+      </c>
+      <c r="C154" s="0">
+        <v>215</v>
+      </c>
+      <c r="D154" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E154" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
+        <v>1676592277240</v>
+      </c>
+      <c r="B155" s="0">
+        <v>29334062829302</v>
+      </c>
+      <c r="C155" s="0">
+        <v>214</v>
+      </c>
+      <c r="D155" s="0">
+        <v>-109</v>
+      </c>
+      <c r="E155" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0">
+        <v>1676592277249</v>
+      </c>
+      <c r="B156" s="0">
+        <v>29334071324603</v>
+      </c>
+      <c r="C156" s="0">
+        <v>214</v>
+      </c>
+      <c r="D156" s="0">
+        <v>-110</v>
+      </c>
+      <c r="E156" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0">
+        <v>1676592277257</v>
+      </c>
+      <c r="B157" s="0">
+        <v>29334079809883</v>
+      </c>
+      <c r="C157" s="0">
+        <v>214</v>
+      </c>
+      <c r="D157" s="0">
+        <v>-110</v>
+      </c>
+      <c r="E157" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0">
+        <v>1676592277266</v>
+      </c>
+      <c r="B158" s="0">
+        <v>29334088291196</v>
+      </c>
+      <c r="C158" s="0">
+        <v>215</v>
+      </c>
+      <c r="D158" s="0">
+        <v>-110</v>
+      </c>
+      <c r="E158" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0">
+        <v>1676592277274</v>
+      </c>
+      <c r="B159" s="0">
+        <v>29334096756061</v>
+      </c>
+      <c r="C159" s="0">
+        <v>215</v>
+      </c>
+      <c r="D159" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E159" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0">
+        <v>1676592277283</v>
+      </c>
+      <c r="B160" s="0">
+        <v>29334105244342</v>
+      </c>
+      <c r="C160" s="0">
+        <v>216</v>
+      </c>
+      <c r="D160" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E160" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0">
+        <v>1676592277291</v>
+      </c>
+      <c r="B161" s="0">
+        <v>29334113729429</v>
+      </c>
+      <c r="C161" s="0">
+        <v>217</v>
+      </c>
+      <c r="D161" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E161" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0">
+        <v>1676592277300</v>
+      </c>
+      <c r="B162" s="0">
+        <v>29334122210031</v>
+      </c>
+      <c r="C162" s="0">
+        <v>217</v>
+      </c>
+      <c r="D162" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E162" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0">
+        <v>1676592277308</v>
+      </c>
+      <c r="B163" s="0">
+        <v>29334130690683</v>
+      </c>
+      <c r="C163" s="0">
+        <v>218</v>
+      </c>
+      <c r="D163" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E163" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0">
+        <v>1676592277317</v>
+      </c>
+      <c r="B164" s="0">
+        <v>29334139170206</v>
+      </c>
+      <c r="C164" s="0">
+        <v>218</v>
+      </c>
+      <c r="D164" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E164" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0">
+        <v>1676592277325</v>
+      </c>
+      <c r="B165" s="0">
+        <v>29334147645506</v>
+      </c>
+      <c r="C165" s="0">
+        <v>219</v>
+      </c>
+      <c r="D165" s="0">
+        <v>-112</v>
+      </c>
+      <c r="E165" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0">
+        <v>1676592277334</v>
+      </c>
+      <c r="B166" s="0">
+        <v>29334156132863</v>
+      </c>
+      <c r="C166" s="0">
+        <v>219</v>
+      </c>
+      <c r="D166" s="0">
+        <v>-113</v>
+      </c>
+      <c r="E166" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0">
+        <v>1676592277342</v>
+      </c>
+      <c r="B167" s="0">
+        <v>29334164615101</v>
+      </c>
+      <c r="C167" s="0">
+        <v>220</v>
+      </c>
+      <c r="D167" s="0">
+        <v>-113</v>
+      </c>
+      <c r="E167" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0">
+        <v>1676592277351</v>
+      </c>
+      <c r="B168" s="0">
+        <v>29334173092315</v>
+      </c>
+      <c r="C168" s="0">
+        <v>220</v>
+      </c>
+      <c r="D168" s="0">
+        <v>-113</v>
+      </c>
+      <c r="E168" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0">
+        <v>1676592277359</v>
+      </c>
+      <c r="B169" s="0">
+        <v>29334181572836</v>
+      </c>
+      <c r="C169" s="0">
+        <v>220</v>
+      </c>
+      <c r="D169" s="0">
+        <v>-114</v>
+      </c>
+      <c r="E169" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0">
+        <v>1676592277368</v>
+      </c>
+      <c r="B170" s="0">
+        <v>29334190053752</v>
+      </c>
+      <c r="C170" s="0">
+        <v>221</v>
+      </c>
+      <c r="D170" s="0">
+        <v>-115</v>
+      </c>
+      <c r="E170" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0">
+        <v>1676592277376</v>
+      </c>
+      <c r="B171" s="0">
+        <v>29334198534261</v>
+      </c>
+      <c r="C171" s="0">
+        <v>221</v>
+      </c>
+      <c r="D171" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E171" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0">
+        <v>1676592277385</v>
+      </c>
+      <c r="B172" s="0">
+        <v>29334207008617</v>
+      </c>
+      <c r="C172" s="0">
+        <v>222</v>
+      </c>
+      <c r="D172" s="0">
+        <v>-119</v>
+      </c>
+      <c r="E172" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0">
+        <v>1676592277393</v>
+      </c>
+      <c r="B173" s="0">
+        <v>29334215484416</v>
+      </c>
+      <c r="C173" s="0">
+        <v>223</v>
+      </c>
+      <c r="D173" s="0">
+        <v>-120</v>
+      </c>
+      <c r="E173" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0">
+        <v>1676592277402</v>
+      </c>
+      <c r="B174" s="0">
+        <v>29334223973165</v>
+      </c>
+      <c r="C174" s="0">
+        <v>224</v>
+      </c>
+      <c r="D174" s="0">
+        <v>-120</v>
+      </c>
+      <c r="E174" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0">
+        <v>1676592277410</v>
+      </c>
+      <c r="B175" s="0">
+        <v>29334232456492</v>
+      </c>
+      <c r="C175" s="0">
+        <v>225</v>
+      </c>
+      <c r="D175" s="0">
+        <v>-120</v>
+      </c>
+      <c r="E175" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0">
+        <v>1676592277418</v>
+      </c>
+      <c r="B176" s="0">
+        <v>29334240936373</v>
+      </c>
+      <c r="C176" s="0">
+        <v>227</v>
+      </c>
+      <c r="D176" s="0">
+        <v>-121</v>
+      </c>
+      <c r="E176" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0">
+        <v>1676592277427</v>
+      </c>
+      <c r="B177" s="0">
+        <v>29334249416709</v>
+      </c>
+      <c r="C177" s="0">
+        <v>227</v>
+      </c>
+      <c r="D177" s="0">
+        <v>-122</v>
+      </c>
+      <c r="E177" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0">
+        <v>1676592277435</v>
+      </c>
+      <c r="B178" s="0">
+        <v>29334257898083</v>
+      </c>
+      <c r="C178" s="0">
+        <v>227</v>
+      </c>
+      <c r="D178" s="0">
+        <v>-124</v>
+      </c>
+      <c r="E178" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0">
+        <v>1676592277444</v>
+      </c>
+      <c r="B179" s="0">
+        <v>29334266378094</v>
+      </c>
+      <c r="C179" s="0">
+        <v>227</v>
+      </c>
+      <c r="D179" s="0">
+        <v>-126</v>
+      </c>
+      <c r="E179" s="0">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0">
+        <v>1676592277452</v>
+      </c>
+      <c r="B180" s="0">
+        <v>29334274854799</v>
+      </c>
+      <c r="C180" s="0">
+        <v>226</v>
+      </c>
+      <c r="D180" s="0">
+        <v>-126</v>
+      </c>
+      <c r="E180" s="0">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0">
+        <v>1676592277461</v>
+      </c>
+      <c r="B181" s="0">
+        <v>29334283338615</v>
+      </c>
+      <c r="C181" s="0">
+        <v>226</v>
+      </c>
+      <c r="D181" s="0">
+        <v>-127</v>
+      </c>
+      <c r="E181" s="0">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0">
+        <v>1676592277469</v>
+      </c>
+      <c r="B182" s="0">
+        <v>29334291819248</v>
+      </c>
+      <c r="C182" s="0">
+        <v>226</v>
+      </c>
+      <c r="D182" s="0">
+        <v>-127</v>
+      </c>
+      <c r="E182" s="0">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0">
+        <v>1676592277478</v>
+      </c>
+      <c r="B183" s="0">
+        <v>29334300299920</v>
+      </c>
+      <c r="C183" s="0">
+        <v>227</v>
+      </c>
+      <c r="D183" s="0">
+        <v>-127</v>
+      </c>
+      <c r="E183" s="0">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0">
+        <v>1676592277486</v>
+      </c>
+      <c r="B184" s="0">
+        <v>29334308779961</v>
+      </c>
+      <c r="C184" s="0">
+        <v>227</v>
+      </c>
+      <c r="D184" s="0">
+        <v>-127</v>
+      </c>
+      <c r="E184" s="0">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0">
+        <v>1676592277495</v>
+      </c>
+      <c r="B185" s="0">
+        <v>29334317260827</v>
+      </c>
+      <c r="C185" s="0">
+        <v>226</v>
+      </c>
+      <c r="D185" s="0">
+        <v>-127</v>
+      </c>
+      <c r="E185" s="0">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0">
+        <v>1676592277503</v>
+      </c>
+      <c r="B186" s="0">
+        <v>29334325740970</v>
+      </c>
+      <c r="C186" s="0">
+        <v>225</v>
+      </c>
+      <c r="D186" s="0">
+        <v>-127</v>
+      </c>
+      <c r="E186" s="0">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0">
+        <v>1676592277512</v>
+      </c>
+      <c r="B187" s="0">
+        <v>29334334218947</v>
+      </c>
+      <c r="C187" s="0">
+        <v>223</v>
+      </c>
+      <c r="D187" s="0">
+        <v>-127</v>
+      </c>
+      <c r="E187" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0">
+        <v>1676592277520</v>
+      </c>
+      <c r="B188" s="0">
+        <v>29334342702030</v>
+      </c>
+      <c r="C188" s="0">
+        <v>222</v>
+      </c>
+      <c r="D188" s="0">
+        <v>-127</v>
+      </c>
+      <c r="E188" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0">
+        <v>1676592277529</v>
+      </c>
+      <c r="B189" s="0">
+        <v>29334351170313</v>
+      </c>
+      <c r="C189" s="0">
+        <v>221</v>
+      </c>
+      <c r="D189" s="0">
+        <v>-126</v>
+      </c>
+      <c r="E189" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0">
+        <v>1676592277537</v>
+      </c>
+      <c r="B190" s="0">
+        <v>29334359663294</v>
+      </c>
+      <c r="C190" s="0">
+        <v>220</v>
+      </c>
+      <c r="D190" s="0">
+        <v>-126</v>
+      </c>
+      <c r="E190" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0">
+        <v>1676592277546</v>
+      </c>
+      <c r="B191" s="0">
+        <v>29334368143753</v>
+      </c>
+      <c r="C191" s="0">
+        <v>219</v>
+      </c>
+      <c r="D191" s="0">
+        <v>-126</v>
+      </c>
+      <c r="E191" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0">
+        <v>1676592277554</v>
+      </c>
+      <c r="B192" s="0">
+        <v>29334376623764</v>
+      </c>
+      <c r="C192" s="0">
+        <v>218</v>
+      </c>
+      <c r="D192" s="0">
+        <v>-127</v>
+      </c>
+      <c r="E192" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0">
+        <v>1676592277563</v>
+      </c>
+      <c r="B193" s="0">
+        <v>29334385106633</v>
+      </c>
+      <c r="C193" s="0">
+        <v>217</v>
+      </c>
+      <c r="D193" s="0">
+        <v>-129</v>
+      </c>
+      <c r="E193" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0">
+        <v>1676592277571</v>
+      </c>
+      <c r="B194" s="0">
+        <v>29334393575383</v>
+      </c>
+      <c r="C194" s="0">
+        <v>217</v>
+      </c>
+      <c r="D194" s="0">
+        <v>-131</v>
+      </c>
+      <c r="E194" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0">
+        <v>1676592277580</v>
+      </c>
+      <c r="B195" s="0">
+        <v>29334402063045</v>
+      </c>
+      <c r="C195" s="0">
+        <v>216</v>
+      </c>
+      <c r="D195" s="0">
+        <v>-133</v>
+      </c>
+      <c r="E195" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0">
+        <v>1676592277588</v>
+      </c>
+      <c r="B196" s="0">
+        <v>29334410546657</v>
+      </c>
+      <c r="C196" s="0">
+        <v>215</v>
+      </c>
+      <c r="D196" s="0">
+        <v>-134</v>
+      </c>
+      <c r="E196" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0">
+        <v>1676592277597</v>
+      </c>
+      <c r="B197" s="0">
+        <v>29334419028641</v>
+      </c>
+      <c r="C197" s="0">
+        <v>213</v>
+      </c>
+      <c r="D197" s="0">
+        <v>-134</v>
+      </c>
+      <c r="E197" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0">
+        <v>1676592277605</v>
+      </c>
+      <c r="B198" s="0">
+        <v>29334427506842</v>
+      </c>
+      <c r="C198" s="0">
+        <v>212</v>
+      </c>
+      <c r="D198" s="0">
+        <v>-134</v>
+      </c>
+      <c r="E198" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0">
+        <v>1676592277613</v>
+      </c>
+      <c r="B199" s="0">
+        <v>29334435984890</v>
+      </c>
+      <c r="C199" s="0">
+        <v>211</v>
+      </c>
+      <c r="D199" s="0">
+        <v>-134</v>
+      </c>
+      <c r="E199" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0">
+        <v>1676592277622</v>
+      </c>
+      <c r="B200" s="0">
+        <v>29334444467200</v>
+      </c>
+      <c r="C200" s="0">
+        <v>210</v>
+      </c>
+      <c r="D200" s="0">
+        <v>-132</v>
+      </c>
+      <c r="E200" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0">
+        <v>1676592277630</v>
+      </c>
+      <c r="B201" s="0">
+        <v>29334452947750</v>
+      </c>
+      <c r="C201" s="0">
+        <v>209</v>
+      </c>
+      <c r="D201" s="0">
+        <v>-131</v>
+      </c>
+      <c r="E201" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0">
+        <v>1676592277639</v>
+      </c>
+      <c r="B202" s="0">
+        <v>29334461434496</v>
+      </c>
+      <c r="C202" s="0">
+        <v>210</v>
+      </c>
+      <c r="D202" s="0">
+        <v>-130</v>
+      </c>
+      <c r="E202" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0">
+        <v>1676592277647</v>
+      </c>
+      <c r="B203" s="0">
+        <v>29334469906959</v>
+      </c>
+      <c r="C203" s="0">
+        <v>211</v>
+      </c>
+      <c r="D203" s="0">
+        <v>-128</v>
+      </c>
+      <c r="E203" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0">
+        <v>1676592277656</v>
+      </c>
+      <c r="B204" s="0">
+        <v>29334478390408</v>
+      </c>
+      <c r="C204" s="0">
+        <v>212</v>
+      </c>
+      <c r="D204" s="0">
+        <v>-127</v>
+      </c>
+      <c r="E204" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0">
+        <v>1676592277664</v>
+      </c>
+      <c r="B205" s="0">
+        <v>29334486872240</v>
+      </c>
+      <c r="C205" s="0">
+        <v>214</v>
+      </c>
+      <c r="D205" s="0">
+        <v>-125</v>
+      </c>
+      <c r="E205" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0">
+        <v>1676592277673</v>
+      </c>
+      <c r="B206" s="0">
+        <v>29334495340105</v>
+      </c>
+      <c r="C206" s="0">
+        <v>217</v>
+      </c>
+      <c r="D206" s="0">
+        <v>-124</v>
+      </c>
+      <c r="E206" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0">
+        <v>1676592277681</v>
+      </c>
+      <c r="B207" s="0">
+        <v>29334503831255</v>
+      </c>
+      <c r="C207" s="0">
+        <v>219</v>
+      </c>
+      <c r="D207" s="0">
+        <v>-122</v>
+      </c>
+      <c r="E207" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0">
+        <v>1676592277690</v>
+      </c>
+      <c r="B208" s="0">
+        <v>29334512310158</v>
+      </c>
+      <c r="C208" s="0">
+        <v>222</v>
+      </c>
+      <c r="D208" s="0">
+        <v>-121</v>
+      </c>
+      <c r="E208" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0">
+        <v>1676592277698</v>
+      </c>
+      <c r="B209" s="0">
+        <v>29334520790780</v>
+      </c>
+      <c r="C209" s="0">
+        <v>224</v>
+      </c>
+      <c r="D209" s="0">
+        <v>-121</v>
+      </c>
+      <c r="E209" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0">
+        <v>1676592277707</v>
+      </c>
+      <c r="B210" s="0">
+        <v>29334529273202</v>
+      </c>
+      <c r="C210" s="0">
+        <v>226</v>
+      </c>
+      <c r="D210" s="0">
+        <v>-121</v>
+      </c>
+      <c r="E210" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0">
+        <v>1676592277715</v>
+      </c>
+      <c r="B211" s="0">
+        <v>29334537753966</v>
+      </c>
+      <c r="C211" s="0">
+        <v>228</v>
+      </c>
+      <c r="D211" s="0">
+        <v>-121</v>
+      </c>
+      <c r="E211" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0">
+        <v>1676592277724</v>
+      </c>
+      <c r="B212" s="0">
+        <v>29334546231973</v>
+      </c>
+      <c r="C212" s="0">
+        <v>229</v>
+      </c>
+      <c r="D212" s="0">
+        <v>-121</v>
+      </c>
+      <c r="E212" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0">
+        <v>1676592277732</v>
+      </c>
+      <c r="B213" s="0">
+        <v>29334554713163</v>
+      </c>
+      <c r="C213" s="0">
+        <v>230</v>
+      </c>
+      <c r="D213" s="0">
+        <v>-121</v>
+      </c>
+      <c r="E213" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0">
+        <v>1676592277741</v>
+      </c>
+      <c r="B214" s="0">
+        <v>29334563195505</v>
+      </c>
+      <c r="C214" s="0">
+        <v>230</v>
+      </c>
+      <c r="D214" s="0">
+        <v>-122</v>
+      </c>
+      <c r="E214" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0">
+        <v>1676592277749</v>
+      </c>
+      <c r="B215" s="0">
+        <v>29334571674774</v>
+      </c>
+      <c r="C215" s="0">
+        <v>230</v>
+      </c>
+      <c r="D215" s="0">
+        <v>-122</v>
+      </c>
+      <c r="E215" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0">
+        <v>1676592277758</v>
+      </c>
+      <c r="B216" s="0">
+        <v>29334580150991</v>
+      </c>
+      <c r="C216" s="0">
+        <v>229</v>
+      </c>
+      <c r="D216" s="0">
+        <v>-122</v>
+      </c>
+      <c r="E216" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0">
+        <v>1676592277766</v>
+      </c>
+      <c r="B217" s="0">
+        <v>29334588635254</v>
+      </c>
+      <c r="C217" s="0">
+        <v>230</v>
+      </c>
+      <c r="D217" s="0">
+        <v>-123</v>
+      </c>
+      <c r="E217" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0">
+        <v>1676592277775</v>
+      </c>
+      <c r="B218" s="0">
+        <v>29334597105632</v>
+      </c>
+      <c r="C218" s="0">
+        <v>230</v>
+      </c>
+      <c r="D218" s="0">
+        <v>-123</v>
+      </c>
+      <c r="E218" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0">
+        <v>1676592277783</v>
+      </c>
+      <c r="B219" s="0">
+        <v>29334605583832</v>
+      </c>
+      <c r="C219" s="0">
+        <v>231</v>
+      </c>
+      <c r="D219" s="0">
+        <v>-124</v>
+      </c>
+      <c r="E219" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0">
+        <v>1676592277792</v>
+      </c>
+      <c r="B220" s="0">
+        <v>29334614070425</v>
+      </c>
+      <c r="C220" s="0">
+        <v>232</v>
+      </c>
+      <c r="D220" s="0">
+        <v>-125</v>
+      </c>
+      <c r="E220" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0">
+        <v>1676592277800</v>
+      </c>
+      <c r="B221" s="0">
+        <v>29334622549744</v>
+      </c>
+      <c r="C221" s="0">
+        <v>232</v>
+      </c>
+      <c r="D221" s="0">
+        <v>-125</v>
+      </c>
+      <c r="E221" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0">
+        <v>1676592277809</v>
+      </c>
+      <c r="B222" s="0">
+        <v>29334631038037</v>
+      </c>
+      <c r="C222" s="0">
+        <v>233</v>
+      </c>
+      <c r="D222" s="0">
+        <v>-125</v>
+      </c>
+      <c r="E222" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0">
+        <v>1676592277817</v>
+      </c>
+      <c r="B223" s="0">
+        <v>29334639504254</v>
+      </c>
+      <c r="C223" s="0">
+        <v>232</v>
+      </c>
+      <c r="D223" s="0">
+        <v>-125</v>
+      </c>
+      <c r="E223" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0">
+        <v>1676592277826</v>
+      </c>
+      <c r="B224" s="0">
+        <v>29334648000836</v>
+      </c>
+      <c r="C224" s="0">
+        <v>232</v>
+      </c>
+      <c r="D224" s="0">
+        <v>-125</v>
+      </c>
+      <c r="E224" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0">
+        <v>1676592277834</v>
+      </c>
+      <c r="B225" s="0">
+        <v>29334656475791</v>
+      </c>
+      <c r="C225" s="0">
+        <v>230</v>
+      </c>
+      <c r="D225" s="0">
+        <v>-125</v>
+      </c>
+      <c r="E225" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0">
+        <v>1676592277842</v>
+      </c>
+      <c r="B226" s="0">
+        <v>29334664959525</v>
+      </c>
+      <c r="C226" s="0">
+        <v>228</v>
+      </c>
+      <c r="D226" s="0">
+        <v>-124</v>
+      </c>
+      <c r="E226" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0">
+        <v>1676592277851</v>
+      </c>
+      <c r="B227" s="0">
+        <v>29334673442964</v>
+      </c>
+      <c r="C227" s="0">
+        <v>225</v>
+      </c>
+      <c r="D227" s="0">
+        <v>-124</v>
+      </c>
+      <c r="E227" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0">
+        <v>1676592277859</v>
+      </c>
+      <c r="B228" s="0">
+        <v>29334681920412</v>
+      </c>
+      <c r="C228" s="0">
+        <v>222</v>
+      </c>
+      <c r="D228" s="0">
+        <v>-124</v>
+      </c>
+      <c r="E228" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0">
+        <v>1676592277868</v>
+      </c>
+      <c r="B229" s="0">
+        <v>29334690398186</v>
+      </c>
+      <c r="C229" s="0">
+        <v>219</v>
+      </c>
+      <c r="D229" s="0">
+        <v>-123</v>
+      </c>
+      <c r="E229" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0">
+        <v>1676592277876</v>
+      </c>
+      <c r="B230" s="0">
+        <v>29334698881585</v>
+      </c>
+      <c r="C230" s="0">
+        <v>217</v>
+      </c>
+      <c r="D230" s="0">
+        <v>-121</v>
+      </c>
+      <c r="E230" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0">
+        <v>1676592277885</v>
+      </c>
+      <c r="B231" s="0">
+        <v>29334707359377</v>
+      </c>
+      <c r="C231" s="0">
+        <v>215</v>
+      </c>
+      <c r="D231" s="0">
+        <v>-120</v>
+      </c>
+      <c r="E231" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0">
+        <v>1676592277893</v>
+      </c>
+      <c r="B232" s="0">
+        <v>29334715839144</v>
+      </c>
+      <c r="C232" s="0">
+        <v>214</v>
+      </c>
+      <c r="D232" s="0">
+        <v>-119</v>
+      </c>
+      <c r="E232" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0">
+        <v>1676592277902</v>
+      </c>
+      <c r="B233" s="0">
+        <v>29334724320102</v>
+      </c>
+      <c r="C233" s="0">
+        <v>213</v>
+      </c>
+      <c r="D233" s="0">
+        <v>-118</v>
+      </c>
+      <c r="E233" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0">
+        <v>1676592277910</v>
+      </c>
+      <c r="B234" s="0">
+        <v>29334732803510</v>
+      </c>
+      <c r="C234" s="0">
+        <v>212</v>
+      </c>
+      <c r="D234" s="0">
+        <v>-119</v>
+      </c>
+      <c r="E234" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0">
+        <v>1676592277919</v>
+      </c>
+      <c r="B235" s="0">
+        <v>29334741286787</v>
+      </c>
+      <c r="C235" s="0">
+        <v>211</v>
+      </c>
+      <c r="D235" s="0">
+        <v>-121</v>
+      </c>
+      <c r="E235" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0">
+        <v>1676592277927</v>
+      </c>
+      <c r="B236" s="0">
+        <v>29334749754368</v>
+      </c>
+      <c r="C236" s="0">
+        <v>210</v>
+      </c>
+      <c r="D236" s="0">
+        <v>-123</v>
+      </c>
+      <c r="E236" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0">
+        <v>1676592277936</v>
+      </c>
+      <c r="B237" s="0">
+        <v>29334758244664</v>
+      </c>
+      <c r="C237" s="0">
+        <v>208</v>
+      </c>
+      <c r="D237" s="0">
+        <v>-124</v>
+      </c>
+      <c r="E237" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0">
+        <v>1676592277944</v>
+      </c>
+      <c r="B238" s="0">
+        <v>29334766724573</v>
+      </c>
+      <c r="C238" s="0">
+        <v>206</v>
+      </c>
+      <c r="D238" s="0">
+        <v>-124</v>
+      </c>
+      <c r="E238" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0">
+        <v>1676592277953</v>
+      </c>
+      <c r="B239" s="0">
+        <v>29334775200342</v>
+      </c>
+      <c r="C239" s="0">
+        <v>207</v>
+      </c>
+      <c r="D239" s="0">
+        <v>-125</v>
+      </c>
+      <c r="E239" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0">
+        <v>1676592277961</v>
+      </c>
+      <c r="B240" s="0">
+        <v>29334783667272</v>
+      </c>
+      <c r="C240" s="0">
+        <v>209</v>
+      </c>
+      <c r="D240" s="0">
+        <v>-123</v>
+      </c>
+      <c r="E240" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0">
+        <v>1676592277970</v>
+      </c>
+      <c r="B241" s="0">
+        <v>29334792166468</v>
+      </c>
+      <c r="C241" s="0">
+        <v>211</v>
+      </c>
+      <c r="D241" s="0">
+        <v>-121</v>
+      </c>
+      <c r="E241" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0">
+        <v>1676592277978</v>
+      </c>
+      <c r="B242" s="0">
+        <v>29334800645900</v>
+      </c>
+      <c r="C242" s="0">
+        <v>213</v>
+      </c>
+      <c r="D242" s="0">
+        <v>-120</v>
+      </c>
+      <c r="E242" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0">
+        <v>1676592277987</v>
+      </c>
+      <c r="B243" s="0">
+        <v>29334809127823</v>
+      </c>
+      <c r="C243" s="0">
+        <v>214</v>
+      </c>
+      <c r="D243" s="0">
+        <v>-119</v>
+      </c>
+      <c r="E243" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0">
+        <v>1676592277995</v>
+      </c>
+      <c r="B244" s="0">
+        <v>29334817609746</v>
+      </c>
+      <c r="C244" s="0">
+        <v>215</v>
+      </c>
+      <c r="D244" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E244" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0">
+        <v>1676592278004</v>
+      </c>
+      <c r="B245" s="0">
+        <v>29334826088120</v>
+      </c>
+      <c r="C245" s="0">
+        <v>216</v>
+      </c>
+      <c r="D245" s="0">
+        <v>-114</v>
+      </c>
+      <c r="E245" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0">
+        <v>1676592278013</v>
+      </c>
+      <c r="B246" s="0">
+        <v>29334834567979</v>
+      </c>
+      <c r="C246" s="0">
+        <v>216</v>
+      </c>
+      <c r="D246" s="0">
+        <v>-113</v>
+      </c>
+      <c r="E246" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0">
+        <v>1676592278021</v>
+      </c>
+      <c r="B247" s="0">
+        <v>29334843045792</v>
+      </c>
+      <c r="C247" s="0">
+        <v>216</v>
+      </c>
+      <c r="D247" s="0">
+        <v>-112</v>
+      </c>
+      <c r="E247" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0">
+        <v>1676592278029</v>
+      </c>
+      <c r="B248" s="0">
+        <v>29334851530636</v>
+      </c>
+      <c r="C248" s="0">
+        <v>217</v>
+      </c>
+      <c r="D248" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E248" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0">
+        <v>1676592278038</v>
+      </c>
+      <c r="B249" s="0">
+        <v>29334860010942</v>
+      </c>
+      <c r="C249" s="0">
+        <v>216</v>
+      </c>
+      <c r="D249" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E249" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0">
+        <v>1676592278046</v>
+      </c>
+      <c r="B250" s="0">
+        <v>29334868489682</v>
+      </c>
+      <c r="C250" s="0">
+        <v>216</v>
+      </c>
+      <c r="D250" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E250" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0">
+        <v>1676592278054</v>
+      </c>
+      <c r="B251" s="0">
+        <v>29334876971391</v>
+      </c>
+      <c r="C251" s="0">
+        <v>216</v>
+      </c>
+      <c r="D251" s="0">
+        <v>-112</v>
+      </c>
+      <c r="E251" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0">
+        <v>1676592278063</v>
+      </c>
+      <c r="B252" s="0">
+        <v>29334885442410</v>
+      </c>
+      <c r="C252" s="0">
+        <v>216</v>
+      </c>
+      <c r="D252" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E252" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0">
+        <v>1676592278071</v>
+      </c>
+      <c r="B253" s="0">
+        <v>29334893921242</v>
+      </c>
+      <c r="C253" s="0">
+        <v>215</v>
+      </c>
+      <c r="D253" s="0">
+        <v>-110</v>
+      </c>
+      <c r="E253" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0">
+        <v>1676592278080</v>
+      </c>
+      <c r="B254" s="0">
+        <v>29334902410356</v>
+      </c>
+      <c r="C254" s="0">
+        <v>215</v>
+      </c>
+      <c r="D254" s="0">
+        <v>-109</v>
+      </c>
+      <c r="E254" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0">
+        <v>1676592278088</v>
+      </c>
+      <c r="B255" s="0">
+        <v>29334910892526</v>
+      </c>
+      <c r="C255" s="0">
+        <v>215</v>
+      </c>
+      <c r="D255" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E255" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0">
+        <v>1676592278097</v>
+      </c>
+      <c r="B256" s="0">
+        <v>29334919375893</v>
+      </c>
+      <c r="C256" s="0">
+        <v>214</v>
+      </c>
+      <c r="D256" s="0">
+        <v>-107</v>
+      </c>
+      <c r="E256" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0">
+        <v>1676592278105</v>
+      </c>
+      <c r="B257" s="0">
+        <v>29334927849170</v>
+      </c>
+      <c r="C257" s="0">
+        <v>213</v>
+      </c>
+      <c r="D257" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E257" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0">
+        <v>1676592278114</v>
+      </c>
+      <c r="B258" s="0">
+        <v>29334936334562</v>
+      </c>
+      <c r="C258" s="0">
+        <v>212</v>
+      </c>
+      <c r="D258" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E258" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0">
+        <v>1676592278122</v>
+      </c>
+      <c r="B259" s="0">
+        <v>29334944816669</v>
+      </c>
+      <c r="C259" s="0">
+        <v>211</v>
+      </c>
+      <c r="D259" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E259" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0">
+        <v>1676592278131</v>
+      </c>
+      <c r="B260" s="0">
+        <v>29334953284707</v>
+      </c>
+      <c r="C260" s="0">
+        <v>209</v>
+      </c>
+      <c r="D260" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E260" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0">
+        <v>1676592278139</v>
+      </c>
+      <c r="B261" s="0">
+        <v>29334961780721</v>
+      </c>
+      <c r="C261" s="0">
+        <v>206</v>
+      </c>
+      <c r="D261" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E261" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0">
+        <v>1676592278148</v>
+      </c>
+      <c r="B262" s="0">
+        <v>29334970255808</v>
+      </c>
+      <c r="C262" s="0">
+        <v>204</v>
+      </c>
+      <c r="D262" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E262" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0">
+        <v>1676592278156</v>
+      </c>
+      <c r="B263" s="0">
+        <v>29334978738230</v>
+      </c>
+      <c r="C263" s="0">
+        <v>201</v>
+      </c>
+      <c r="D263" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E263" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0">
+        <v>1676592278165</v>
+      </c>
+      <c r="B264" s="0">
+        <v>29334987217661</v>
+      </c>
+      <c r="C264" s="0">
+        <v>198</v>
+      </c>
+      <c r="D264" s="0">
+        <v>-101</v>
+      </c>
+      <c r="E264" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0">
+        <v>1676592278173</v>
+      </c>
+      <c r="B265" s="0">
+        <v>29334995681233</v>
+      </c>
+      <c r="C265" s="0">
+        <v>194</v>
+      </c>
+      <c r="D265" s="0">
+        <v>-100</v>
+      </c>
+      <c r="E265" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0">
+        <v>1676592278182</v>
+      </c>
+      <c r="B266" s="0">
+        <v>29335004178303</v>
+      </c>
+      <c r="C266" s="0">
+        <v>190</v>
+      </c>
+      <c r="D266" s="0">
+        <v>-99</v>
+      </c>
+      <c r="E266" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0">
+        <v>1676592278190</v>
+      </c>
+      <c r="B267" s="0">
+        <v>29335012656413</v>
+      </c>
+      <c r="C267" s="0">
+        <v>185</v>
+      </c>
+      <c r="D267" s="0">
+        <v>-99</v>
+      </c>
+      <c r="E267" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0">
+        <v>1676592278199</v>
+      </c>
+      <c r="B268" s="0">
+        <v>29335021136689</v>
+      </c>
+      <c r="C268" s="0">
+        <v>181</v>
+      </c>
+      <c r="D268" s="0">
+        <v>-100</v>
+      </c>
+      <c r="E268" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0">
+        <v>1676592278207</v>
+      </c>
+      <c r="B269" s="0">
+        <v>29335029617687</v>
+      </c>
+      <c r="C269" s="0">
+        <v>176</v>
+      </c>
+      <c r="D269" s="0">
+        <v>-101</v>
+      </c>
+      <c r="E269" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0">
+        <v>1676592278216</v>
+      </c>
+      <c r="B270" s="0">
+        <v>29335038084301</v>
+      </c>
+      <c r="C270" s="0">
+        <v>172</v>
+      </c>
+      <c r="D270" s="0">
+        <v>-101</v>
+      </c>
+      <c r="E270" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0">
+        <v>1676592278224</v>
+      </c>
+      <c r="B271" s="0">
+        <v>29335046584942</v>
+      </c>
+      <c r="C271" s="0">
+        <v>168</v>
+      </c>
+      <c r="D271" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E271" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0">
+        <v>1676592278233</v>
+      </c>
+      <c r="B272" s="0">
+        <v>29335055050010</v>
+      </c>
+      <c r="C272" s="0">
+        <v>165</v>
+      </c>
+      <c r="D272" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E272" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0">
+        <v>1676592278241</v>
+      </c>
+      <c r="B273" s="0">
+        <v>29335063541006</v>
+      </c>
+      <c r="C273" s="0">
+        <v>161</v>
+      </c>
+      <c r="D273" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E273" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0">
+        <v>1676592278250</v>
+      </c>
+      <c r="B274" s="0">
+        <v>29335072013653</v>
+      </c>
+      <c r="C274" s="0">
+        <v>157</v>
+      </c>
+      <c r="D274" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E274" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0">
+        <v>1676592278258</v>
+      </c>
+      <c r="B275" s="0">
+        <v>29335080502413</v>
+      </c>
+      <c r="C275" s="0">
+        <v>154</v>
+      </c>
+      <c r="D275" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E275" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0">
+        <v>1676592278266</v>
+      </c>
+      <c r="B276" s="0">
+        <v>29335088978040</v>
+      </c>
+      <c r="C276" s="0">
+        <v>151</v>
+      </c>
+      <c r="D276" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E276" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0">
+        <v>1676592278275</v>
+      </c>
+      <c r="B277" s="0">
+        <v>29335097463229</v>
+      </c>
+      <c r="C277" s="0">
+        <v>149</v>
+      </c>
+      <c r="D277" s="0">
+        <v>-107</v>
+      </c>
+      <c r="E277" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0">
+        <v>1676592278283</v>
+      </c>
+      <c r="B278" s="0">
+        <v>29335105925855</v>
+      </c>
+      <c r="C278" s="0">
+        <v>148</v>
+      </c>
+      <c r="D278" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E278" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0">
+        <v>1676592278292</v>
+      </c>
+      <c r="B279" s="0">
+        <v>29335114424492</v>
+      </c>
+      <c r="C279" s="0">
+        <v>147</v>
+      </c>
+      <c r="D279" s="0">
+        <v>-109</v>
+      </c>
+      <c r="E279" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0">
+        <v>1676592278300</v>
+      </c>
+      <c r="B280" s="0">
+        <v>29335122904533</v>
+      </c>
+      <c r="C280" s="0">
+        <v>147</v>
+      </c>
+      <c r="D280" s="0">
+        <v>-110</v>
+      </c>
+      <c r="E280" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0">
+        <v>1676592278309</v>
+      </c>
+      <c r="B281" s="0">
+        <v>29335131382287</v>
+      </c>
+      <c r="C281" s="0">
+        <v>147</v>
+      </c>
+      <c r="D281" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E281" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0">
+        <v>1676592278317</v>
+      </c>
+      <c r="B282" s="0">
+        <v>29335139868128</v>
+      </c>
+      <c r="C282" s="0">
+        <v>147</v>
+      </c>
+      <c r="D282" s="0">
+        <v>-113</v>
+      </c>
+      <c r="E282" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0">
+        <v>1676592278326</v>
+      </c>
+      <c r="B283" s="0">
+        <v>29335148346439</v>
+      </c>
+      <c r="C283" s="0">
+        <v>147</v>
+      </c>
+      <c r="D283" s="0">
+        <v>-114</v>
+      </c>
+      <c r="E283" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0">
+        <v>1676592278334</v>
+      </c>
+      <c r="B284" s="0">
+        <v>29335156823887</v>
+      </c>
+      <c r="C284" s="0">
+        <v>148</v>
+      </c>
+      <c r="D284" s="0">
+        <v>-114</v>
+      </c>
+      <c r="E284" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0">
+        <v>1676592278343</v>
+      </c>
+      <c r="B285" s="0">
+        <v>29335165298659</v>
+      </c>
+      <c r="C285" s="0">
+        <v>149</v>
+      </c>
+      <c r="D285" s="0">
+        <v>-115</v>
+      </c>
+      <c r="E285" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0">
+        <v>1676592278351</v>
+      </c>
+      <c r="B286" s="0">
+        <v>29335173790276</v>
+      </c>
+      <c r="C286" s="0">
+        <v>150</v>
+      </c>
+      <c r="D286" s="0">
+        <v>-115</v>
+      </c>
+      <c r="E286" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0">
+        <v>1676592278360</v>
+      </c>
+      <c r="B287" s="0">
+        <v>29335182256769</v>
+      </c>
+      <c r="C287" s="0">
+        <v>151</v>
+      </c>
+      <c r="D287" s="0">
+        <v>-116</v>
+      </c>
+      <c r="E287" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0">
+        <v>1676592278369</v>
+      </c>
+      <c r="B288" s="0">
+        <v>29335190748144</v>
+      </c>
+      <c r="C288" s="0">
+        <v>152</v>
+      </c>
+      <c r="D288" s="0">
+        <v>-116</v>
+      </c>
+      <c r="E288" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0">
+        <v>1676592278377</v>
+      </c>
+      <c r="B289" s="0">
+        <v>29335199228623</v>
+      </c>
+      <c r="C289" s="0">
+        <v>152</v>
+      </c>
+      <c r="D289" s="0">
+        <v>-116</v>
+      </c>
+      <c r="E289" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0">
+        <v>1676592278385</v>
+      </c>
+      <c r="B290" s="0">
+        <v>29335207709091</v>
+      </c>
+      <c r="C290" s="0">
+        <v>153</v>
+      </c>
+      <c r="D290" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E290" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0">
+        <v>1676592278394</v>
+      </c>
+      <c r="B291" s="0">
+        <v>29335216185512</v>
+      </c>
+      <c r="C291" s="0">
+        <v>154</v>
+      </c>
+      <c r="D291" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E291" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0">
+        <v>1676592278402</v>
+      </c>
+      <c r="B292" s="0">
+        <v>29335224670334</v>
+      </c>
+      <c r="C292" s="0">
+        <v>155</v>
+      </c>
+      <c r="D292" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E292" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0">
+        <v>1676592278411</v>
+      </c>
+      <c r="B293" s="0">
+        <v>29335233141048</v>
+      </c>
+      <c r="C293" s="0">
+        <v>155</v>
+      </c>
+      <c r="D293" s="0">
+        <v>-118</v>
+      </c>
+      <c r="E293" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0">
+        <v>1676592278419</v>
+      </c>
+      <c r="B294" s="0">
+        <v>29335241631476</v>
+      </c>
+      <c r="C294" s="0">
+        <v>156</v>
+      </c>
+      <c r="D294" s="0">
+        <v>-118</v>
+      </c>
+      <c r="E294" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0">
+        <v>1676592278428</v>
+      </c>
+      <c r="B295" s="0">
+        <v>29335250112687</v>
+      </c>
+      <c r="C295" s="0">
+        <v>156</v>
+      </c>
+      <c r="D295" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E295" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0">
+        <v>1676592278436</v>
+      </c>
+      <c r="B296" s="0">
+        <v>29335258591987</v>
+      </c>
+      <c r="C296" s="0">
+        <v>157</v>
+      </c>
+      <c r="D296" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E296" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0">
+        <v>1676592278445</v>
+      </c>
+      <c r="B297" s="0">
+        <v>29335267072120</v>
+      </c>
+      <c r="C297" s="0">
+        <v>157</v>
+      </c>
+      <c r="D297" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E297" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0">
+        <v>1676592278453</v>
+      </c>
+      <c r="B298" s="0">
+        <v>29335275542498</v>
+      </c>
+      <c r="C298" s="0">
+        <v>157</v>
+      </c>
+      <c r="D298" s="0">
+        <v>-117</v>
+      </c>
+      <c r="E298" s="0">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0">
+        <v>1676592278462</v>
+      </c>
+      <c r="B299" s="0">
+        <v>29335284033770</v>
+      </c>
+      <c r="C299" s="0">
+        <v>157</v>
+      </c>
+      <c r="D299" s="0">
+        <v>-118</v>
+      </c>
+      <c r="E299" s="0">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0">
+        <v>1676592278470</v>
+      </c>
+      <c r="B300" s="0">
+        <v>29335292513221</v>
+      </c>
+      <c r="C300" s="0">
+        <v>157</v>
+      </c>
+      <c r="D300" s="0">
+        <v>-118</v>
+      </c>
+      <c r="E300" s="0">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0">
+        <v>1676592278478</v>
+      </c>
+      <c r="B301" s="0">
+        <v>29335300991880</v>
+      </c>
+      <c r="C301" s="0">
+        <v>157</v>
+      </c>
+      <c r="D301" s="0">
+        <v>-119</v>
+      </c>
+      <c r="E301" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0">
+        <v>1676592278487</v>
+      </c>
+      <c r="B302" s="0">
+        <v>29335309475787</v>
+      </c>
+      <c r="C302" s="0">
+        <v>157</v>
+      </c>
+      <c r="D302" s="0">
+        <v>-120</v>
+      </c>
+      <c r="E302" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0">
+        <v>1676592278495</v>
+      </c>
+      <c r="B303" s="0">
+        <v>29335317957772</v>
+      </c>
+      <c r="C303" s="0">
+        <v>157</v>
+      </c>
+      <c r="D303" s="0">
+        <v>-119</v>
+      </c>
+      <c r="E303" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0">
+        <v>1676592278504</v>
+      </c>
+      <c r="B304" s="0">
+        <v>29335326435311</v>
+      </c>
+      <c r="C304" s="0">
+        <v>158</v>
+      </c>
+      <c r="D304" s="0">
+        <v>-118</v>
+      </c>
+      <c r="E304" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0">
+        <v>1676592278512</v>
+      </c>
+      <c r="B305" s="0">
+        <v>29335334915800</v>
+      </c>
+      <c r="C305" s="0">
+        <v>158</v>
+      </c>
+      <c r="D305" s="0">
+        <v>-116</v>
+      </c>
+      <c r="E305" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0">
+        <v>1676592278521</v>
+      </c>
+      <c r="B306" s="0">
+        <v>29335343396726</v>
+      </c>
+      <c r="C306" s="0">
+        <v>158</v>
+      </c>
+      <c r="D306" s="0">
+        <v>-115</v>
+      </c>
+      <c r="E306" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0">
+        <v>1676592278529</v>
+      </c>
+      <c r="B307" s="0">
+        <v>29335351876677</v>
+      </c>
+      <c r="C307" s="0">
+        <v>158</v>
+      </c>
+      <c r="D307" s="0">
+        <v>-114</v>
+      </c>
+      <c r="E307" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0">
+        <v>1676592278538</v>
+      </c>
+      <c r="B308" s="0">
+        <v>29335360340850</v>
+      </c>
+      <c r="C308" s="0">
+        <v>157</v>
+      </c>
+      <c r="D308" s="0">
+        <v>-113</v>
+      </c>
+      <c r="E308" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0">
+        <v>1676592278546</v>
+      </c>
+      <c r="B309" s="0">
+        <v>29335368838561</v>
+      </c>
+      <c r="C309" s="0">
+        <v>156</v>
+      </c>
+      <c r="D309" s="0">
+        <v>-112</v>
+      </c>
+      <c r="E309" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0">
+        <v>1676592278555</v>
+      </c>
+      <c r="B310" s="0">
+        <v>29335377318908</v>
+      </c>
+      <c r="C310" s="0">
+        <v>156</v>
+      </c>
+      <c r="D310" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E310" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0">
+        <v>1676592278563</v>
+      </c>
+      <c r="B311" s="0">
+        <v>29335385799133</v>
+      </c>
+      <c r="C311" s="0">
+        <v>156</v>
+      </c>
+      <c r="D311" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E311" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0">
+        <v>1676592278572</v>
+      </c>
+      <c r="B312" s="0">
+        <v>29335394286539</v>
+      </c>
+      <c r="C312" s="0">
+        <v>155</v>
+      </c>
+      <c r="D312" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E312" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0">
+        <v>1676592278580</v>
+      </c>
+      <c r="B313" s="0">
+        <v>29335402759785</v>
+      </c>
+      <c r="C313" s="0">
+        <v>155</v>
+      </c>
+      <c r="D313" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E313" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0">
+        <v>1676592278589</v>
+      </c>
+      <c r="B314" s="0">
+        <v>29335411237824</v>
+      </c>
+      <c r="C314" s="0">
+        <v>154</v>
+      </c>
+      <c r="D314" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E314" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0">
+        <v>1676592278597</v>
+      </c>
+      <c r="B315" s="0">
+        <v>29335419720469</v>
+      </c>
+      <c r="C315" s="0">
+        <v>153</v>
+      </c>
+      <c r="D315" s="0">
+        <v>-112</v>
+      </c>
+      <c r="E315" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0">
+        <v>1676592278606</v>
+      </c>
+      <c r="B316" s="0">
+        <v>29335428204163</v>
+      </c>
+      <c r="C316" s="0">
+        <v>152</v>
+      </c>
+      <c r="D316" s="0">
+        <v>-112</v>
+      </c>
+      <c r="E316" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0">
+        <v>1676592278615</v>
+      </c>
+      <c r="B317" s="0">
+        <v>29335436682068</v>
+      </c>
+      <c r="C317" s="0">
+        <v>151</v>
+      </c>
+      <c r="D317" s="0">
+        <v>-112</v>
+      </c>
+      <c r="E317" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0">
+        <v>1676592278623</v>
+      </c>
+      <c r="B318" s="0">
+        <v>29335445160655</v>
+      </c>
+      <c r="C318" s="0">
+        <v>151</v>
+      </c>
+      <c r="D318" s="0">
+        <v>-112</v>
+      </c>
+      <c r="E318" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0">
+        <v>1676592278631</v>
+      </c>
+      <c r="B319" s="0">
+        <v>29335453642772</v>
+      </c>
+      <c r="C319" s="0">
+        <v>150</v>
+      </c>
+      <c r="D319" s="0">
+        <v>-111</v>
+      </c>
+      <c r="E319" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0">
+        <v>1676592278640</v>
+      </c>
+      <c r="B320" s="0">
+        <v>29335462124279</v>
+      </c>
+      <c r="C320" s="0">
+        <v>150</v>
+      </c>
+      <c r="D320" s="0">
+        <v>-110</v>
+      </c>
+      <c r="E320" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="0">
+        <v>1676592278648</v>
+      </c>
+      <c r="B321" s="0">
+        <v>29335470600222</v>
+      </c>
+      <c r="C321" s="0">
+        <v>150</v>
+      </c>
+      <c r="D321" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E321" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="0">
+        <v>1676592278657</v>
+      </c>
+      <c r="B322" s="0">
+        <v>29335479083355</v>
+      </c>
+      <c r="C322" s="0">
+        <v>150</v>
+      </c>
+      <c r="D322" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E322" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="0">
+        <v>1676592278665</v>
+      </c>
+      <c r="B323" s="0">
+        <v>29335487561648</v>
+      </c>
+      <c r="C323" s="0">
+        <v>150</v>
+      </c>
+      <c r="D323" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E323" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="0">
+        <v>1676592278674</v>
+      </c>
+      <c r="B324" s="0">
+        <v>29335496032798</v>
+      </c>
+      <c r="C324" s="0">
+        <v>150</v>
+      </c>
+      <c r="D324" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E324" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="0">
+        <v>1676592278682</v>
+      </c>
+      <c r="B325" s="0">
+        <v>29335504512300</v>
+      </c>
+      <c r="C325" s="0">
+        <v>150</v>
+      </c>
+      <c r="D325" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E325" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="0">
+        <v>1676592278690</v>
+      </c>
+      <c r="B326" s="0">
+        <v>29335512996299</v>
+      </c>
+      <c r="C326" s="0">
+        <v>150</v>
+      </c>
+      <c r="D326" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E326" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="0">
+        <v>1676592278699</v>
+      </c>
+      <c r="B327" s="0">
+        <v>29335521477043</v>
+      </c>
+      <c r="C327" s="0">
+        <v>149</v>
+      </c>
+      <c r="D327" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E327" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="0">
+        <v>1676592278707</v>
+      </c>
+      <c r="B328" s="0">
+        <v>29335529969181</v>
+      </c>
+      <c r="C328" s="0">
+        <v>148</v>
+      </c>
+      <c r="D328" s="0">
+        <v>-107</v>
+      </c>
+      <c r="E328" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="0">
+        <v>1676592278716</v>
+      </c>
+      <c r="B329" s="0">
+        <v>29335538449538</v>
+      </c>
+      <c r="C329" s="0">
+        <v>147</v>
+      </c>
+      <c r="D329" s="0">
+        <v>-110</v>
+      </c>
+      <c r="E329" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="0">
+        <v>1676592278724</v>
+      </c>
+      <c r="B330" s="0">
+        <v>29335546927687</v>
+      </c>
+      <c r="C330" s="0">
+        <v>145</v>
+      </c>
+      <c r="D330" s="0">
+        <v>-110</v>
+      </c>
+      <c r="E330" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="0">
+        <v>1676592278733</v>
+      </c>
+      <c r="B331" s="0">
+        <v>29335555398349</v>
+      </c>
+      <c r="C331" s="0">
+        <v>143</v>
+      </c>
+      <c r="D331" s="0">
+        <v>-108</v>
+      </c>
+      <c r="E331" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="0">
+        <v>1676592278741</v>
+      </c>
+      <c r="B332" s="0">
+        <v>29335563886010</v>
+      </c>
+      <c r="C332" s="0">
+        <v>142</v>
+      </c>
+      <c r="D332" s="0">
+        <v>-106</v>
+      </c>
+      <c r="E332" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="0">
+        <v>1676592278750</v>
+      </c>
+      <c r="B333" s="0">
+        <v>29335572356235</v>
+      </c>
+      <c r="C333" s="0">
+        <v>141</v>
+      </c>
+      <c r="D333" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E333" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="0">
+        <v>1676592278758</v>
+      </c>
+      <c r="B334" s="0">
+        <v>29335580839909</v>
+      </c>
+      <c r="C334" s="0">
+        <v>141</v>
+      </c>
+      <c r="D334" s="0">
+        <v>-105</v>
+      </c>
+      <c r="E334" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="0">
+        <v>1676592278767</v>
+      </c>
+      <c r="B335" s="0">
+        <v>29335589321965</v>
+      </c>
+      <c r="C335" s="0">
+        <v>139</v>
+      </c>
+      <c r="D335" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E335" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="0">
+        <v>1676592278775</v>
+      </c>
+      <c r="B336" s="0">
+        <v>29335597802668</v>
+      </c>
+      <c r="C336" s="0">
+        <v>138</v>
+      </c>
+      <c r="D336" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E336" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="0">
+        <v>1676592278784</v>
+      </c>
+      <c r="B337" s="0">
+        <v>29335606281906</v>
+      </c>
+      <c r="C337" s="0">
+        <v>137</v>
+      </c>
+      <c r="D337" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E337" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="0">
+        <v>1676592278792</v>
+      </c>
+      <c r="B338" s="0">
+        <v>29335614760818</v>
+      </c>
+      <c r="C338" s="0">
+        <v>136</v>
+      </c>
+      <c r="D338" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E338" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="0">
+        <v>1676592278801</v>
+      </c>
+      <c r="B339" s="0">
+        <v>29335623242945</v>
+      </c>
+      <c r="C339" s="0">
+        <v>136</v>
+      </c>
+      <c r="D339" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E339" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="0">
+        <v>1676592278809</v>
+      </c>
+      <c r="B340" s="0">
+        <v>29335631724575</v>
+      </c>
+      <c r="C340" s="0">
+        <v>135</v>
+      </c>
+      <c r="D340" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E340" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="0">
+        <v>1676592278818</v>
+      </c>
+      <c r="B341" s="0">
+        <v>29335640203975</v>
+      </c>
+      <c r="C341" s="0">
+        <v>135</v>
+      </c>
+      <c r="D341" s="0">
+        <v>-101</v>
+      </c>
+      <c r="E341" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="0">
+        <v>1676592278826</v>
+      </c>
+      <c r="B342" s="0">
+        <v>29335648683783</v>
+      </c>
+      <c r="C342" s="0">
+        <v>135</v>
+      </c>
+      <c r="D342" s="0">
+        <v>-99</v>
+      </c>
+      <c r="E342" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="0">
+        <v>1676592278835</v>
+      </c>
+      <c r="B343" s="0">
+        <v>29335657165595</v>
+      </c>
+      <c r="C343" s="0">
+        <v>135</v>
+      </c>
+      <c r="D343" s="0">
+        <v>-97</v>
+      </c>
+      <c r="E343" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="0">
+        <v>1676592278843</v>
+      </c>
+      <c r="B344" s="0">
+        <v>29335665644670</v>
+      </c>
+      <c r="C344" s="0">
+        <v>134</v>
+      </c>
+      <c r="D344" s="0">
+        <v>-95</v>
+      </c>
+      <c r="E344" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="0">
+        <v>1676592278852</v>
+      </c>
+      <c r="B345" s="0">
+        <v>29335674117621</v>
+      </c>
+      <c r="C345" s="0">
+        <v>134</v>
+      </c>
+      <c r="D345" s="0">
+        <v>-94</v>
+      </c>
+      <c r="E345" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="0">
+        <v>1676592278860</v>
+      </c>
+      <c r="B346" s="0">
+        <v>29335682604661</v>
+      </c>
+      <c r="C346" s="0">
+        <v>133</v>
+      </c>
+      <c r="D346" s="0">
+        <v>-93</v>
+      </c>
+      <c r="E346" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="0">
+        <v>1676592278869</v>
+      </c>
+      <c r="B347" s="0">
+        <v>29335691088336</v>
+      </c>
+      <c r="C347" s="0">
+        <v>133</v>
+      </c>
+      <c r="D347" s="0">
+        <v>-92</v>
+      </c>
+      <c r="E347" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="0">
+        <v>1676592278877</v>
+      </c>
+      <c r="B348" s="0">
+        <v>29335699568408</v>
+      </c>
+      <c r="C348" s="0">
+        <v>133</v>
+      </c>
+      <c r="D348" s="0">
+        <v>-92</v>
+      </c>
+      <c r="E348" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="0">
+        <v>1676592278886</v>
+      </c>
+      <c r="B349" s="0">
+        <v>29335708048378</v>
+      </c>
+      <c r="C349" s="0">
+        <v>133</v>
+      </c>
+      <c r="D349" s="0">
+        <v>-92</v>
+      </c>
+      <c r="E349" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="0">
+        <v>1676592278894</v>
+      </c>
+      <c r="B350" s="0">
+        <v>29335716529478</v>
+      </c>
+      <c r="C350" s="0">
+        <v>133</v>
+      </c>
+      <c r="D350" s="0">
+        <v>-93</v>
+      </c>
+      <c r="E350" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="0">
+        <v>1676592278903</v>
+      </c>
+      <c r="B351" s="0">
+        <v>29335725024086</v>
+      </c>
+      <c r="C351" s="0">
+        <v>133</v>
+      </c>
+      <c r="D351" s="0">
+        <v>-93</v>
+      </c>
+      <c r="E351" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="0">
+        <v>1676592278911</v>
+      </c>
+      <c r="B352" s="0">
+        <v>29335733488981</v>
+      </c>
+      <c r="C352" s="0">
+        <v>134</v>
+      </c>
+      <c r="D352" s="0">
+        <v>-94</v>
+      </c>
+      <c r="E352" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="0">
+        <v>1676592278919</v>
+      </c>
+      <c r="B353" s="0">
+        <v>29335741968463</v>
+      </c>
+      <c r="C353" s="0">
+        <v>135</v>
+      </c>
+      <c r="D353" s="0">
+        <v>-96</v>
+      </c>
+      <c r="E353" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="0">
+        <v>1676592278928</v>
+      </c>
+      <c r="B354" s="0">
+        <v>29335750449421</v>
+      </c>
+      <c r="C354" s="0">
+        <v>136</v>
+      </c>
+      <c r="D354" s="0">
+        <v>-97</v>
+      </c>
+      <c r="E354" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="0">
+        <v>1676592278936</v>
+      </c>
+      <c r="B355" s="0">
+        <v>29335758930267</v>
+      </c>
+      <c r="C355" s="0">
+        <v>137</v>
+      </c>
+      <c r="D355" s="0">
+        <v>-99</v>
+      </c>
+      <c r="E355" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0">
+        <v>1676592278945</v>
+      </c>
+      <c r="B356" s="0">
+        <v>29335767412159</v>
+      </c>
+      <c r="C356" s="0">
+        <v>138</v>
+      </c>
+      <c r="D356" s="0">
+        <v>-101</v>
+      </c>
+      <c r="E356" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="0">
+        <v>1676592278953</v>
+      </c>
+      <c r="B357" s="0">
+        <v>29335775891651</v>
+      </c>
+      <c r="C357" s="0">
+        <v>139</v>
+      </c>
+      <c r="D357" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E357" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0">
+        <v>1676592278962</v>
+      </c>
+      <c r="B358" s="0">
+        <v>29335784374186</v>
+      </c>
+      <c r="C358" s="0">
+        <v>141</v>
+      </c>
+      <c r="D358" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E358" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="0">
+        <v>1676592278970</v>
+      </c>
+      <c r="B359" s="0">
+        <v>29335792851714</v>
+      </c>
+      <c r="C359" s="0">
+        <v>143</v>
+      </c>
+      <c r="D359" s="0">
+        <v>-104</v>
+      </c>
+      <c r="E359" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0">
+        <v>1676592278979</v>
+      </c>
+      <c r="B360" s="0">
+        <v>29335801333446</v>
+      </c>
+      <c r="C360" s="0">
+        <v>144</v>
+      </c>
+      <c r="D360" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E360" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="0">
+        <v>1676592278987</v>
+      </c>
+      <c r="B361" s="0">
+        <v>29335809816152</v>
+      </c>
+      <c r="C361" s="0">
+        <v>146</v>
+      </c>
+      <c r="D361" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E361" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0">
+        <v>1676592278996</v>
+      </c>
+      <c r="B362" s="0">
+        <v>29335818293895</v>
+      </c>
+      <c r="C362" s="0">
+        <v>146</v>
+      </c>
+      <c r="D362" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E362" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="0">
+        <v>1676592279004</v>
+      </c>
+      <c r="B363" s="0">
+        <v>29335826775299</v>
+      </c>
+      <c r="C363" s="0">
+        <v>147</v>
+      </c>
+      <c r="D363" s="0">
+        <v>-101</v>
+      </c>
+      <c r="E363" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0">
+        <v>1676592279013</v>
+      </c>
+      <c r="B364" s="0">
+        <v>29335835256114</v>
+      </c>
+      <c r="C364" s="0">
+        <v>147</v>
+      </c>
+      <c r="D364" s="0">
+        <v>-100</v>
+      </c>
+      <c r="E364" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="0">
+        <v>1676592279021</v>
+      </c>
+      <c r="B365" s="0">
+        <v>29335843731781</v>
+      </c>
+      <c r="C365" s="0">
+        <v>146</v>
+      </c>
+      <c r="D365" s="0">
+        <v>-98</v>
+      </c>
+      <c r="E365" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0">
+        <v>1676592279030</v>
+      </c>
+      <c r="B366" s="0">
+        <v>29335852216646</v>
+      </c>
+      <c r="C366" s="0">
+        <v>146</v>
+      </c>
+      <c r="D366" s="0">
+        <v>-98</v>
+      </c>
+      <c r="E366" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="0">
+        <v>1676592279038</v>
+      </c>
+      <c r="B367" s="0">
+        <v>29335860695517</v>
+      </c>
+      <c r="C367" s="0">
+        <v>145</v>
+      </c>
+      <c r="D367" s="0">
+        <v>-97</v>
+      </c>
+      <c r="E367" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0">
+        <v>1676592279047</v>
+      </c>
+      <c r="B368" s="0">
+        <v>29335869176230</v>
+      </c>
+      <c r="C368" s="0">
+        <v>146</v>
+      </c>
+      <c r="D368" s="0">
+        <v>-96</v>
+      </c>
+      <c r="E368" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="0">
+        <v>1676592279055</v>
+      </c>
+      <c r="B369" s="0">
+        <v>29335877656393</v>
+      </c>
+      <c r="C369" s="0">
+        <v>148</v>
+      </c>
+      <c r="D369" s="0">
+        <v>-96</v>
+      </c>
+      <c r="E369" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0">
+        <v>1676592279064</v>
+      </c>
+      <c r="B370" s="0">
+        <v>29335886135836</v>
+      </c>
+      <c r="C370" s="0">
+        <v>150</v>
+      </c>
+      <c r="D370" s="0">
+        <v>-96</v>
+      </c>
+      <c r="E370" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="0">
+        <v>1676592279072</v>
+      </c>
+      <c r="B371" s="0">
+        <v>29335894618380</v>
+      </c>
+      <c r="C371" s="0">
+        <v>151</v>
+      </c>
+      <c r="D371" s="0">
+        <v>-95</v>
+      </c>
+      <c r="E371" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0">
+        <v>1676592279081</v>
+      </c>
+      <c r="B372" s="0">
+        <v>29335903099459</v>
+      </c>
+      <c r="C372" s="0">
+        <v>150</v>
+      </c>
+      <c r="D372" s="0">
+        <v>-95</v>
+      </c>
+      <c r="E372" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="0">
+        <v>1676592279089</v>
+      </c>
+      <c r="B373" s="0">
+        <v>29335911578789</v>
+      </c>
+      <c r="C373" s="0">
+        <v>149</v>
+      </c>
+      <c r="D373" s="0">
+        <v>-96</v>
+      </c>
+      <c r="E373" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0">
+        <v>1676592279098</v>
+      </c>
+      <c r="B374" s="0">
+        <v>29335920060550</v>
+      </c>
+      <c r="C374" s="0">
+        <v>150</v>
+      </c>
+      <c r="D374" s="0">
+        <v>-96</v>
+      </c>
+      <c r="E374" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="0">
+        <v>1676592279106</v>
+      </c>
+      <c r="B375" s="0">
+        <v>29335928539594</v>
+      </c>
+      <c r="C375" s="0">
+        <v>151</v>
+      </c>
+      <c r="D375" s="0">
+        <v>-95</v>
+      </c>
+      <c r="E375" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0">
+        <v>1676592279115</v>
+      </c>
+      <c r="B376" s="0">
+        <v>29335937017927</v>
+      </c>
+      <c r="C376" s="0">
+        <v>153</v>
+      </c>
+      <c r="D376" s="0">
+        <v>-94</v>
+      </c>
+      <c r="E376" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0">
+        <v>1676592279123</v>
+      </c>
+      <c r="B377" s="0">
+        <v>29335945497887</v>
+      </c>
+      <c r="C377" s="0">
+        <v>153</v>
+      </c>
+      <c r="D377" s="0">
+        <v>-92</v>
+      </c>
+      <c r="E377" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0">
+        <v>1676592279131</v>
+      </c>
+      <c r="B378" s="0">
+        <v>29335953979252</v>
+      </c>
+      <c r="C378" s="0">
+        <v>153</v>
+      </c>
+      <c r="D378" s="0">
+        <v>-90</v>
+      </c>
+      <c r="E378" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0">
+        <v>1676592279140</v>
+      </c>
+      <c r="B379" s="0">
+        <v>29335962463138</v>
+      </c>
+      <c r="C379" s="0">
+        <v>154</v>
+      </c>
+      <c r="D379" s="0">
+        <v>-90</v>
+      </c>
+      <c r="E379" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0">
+        <v>1676592279148</v>
+      </c>
+      <c r="B380" s="0">
+        <v>29335970942336</v>
+      </c>
+      <c r="C380" s="0">
+        <v>156</v>
+      </c>
+      <c r="D380" s="0">
+        <v>-90</v>
+      </c>
+      <c r="E380" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0">
+        <v>1676592279157</v>
+      </c>
+      <c r="B381" s="0">
+        <v>29335979421767</v>
+      </c>
+      <c r="C381" s="0">
+        <v>158</v>
+      </c>
+      <c r="D381" s="0">
+        <v>-92</v>
+      </c>
+      <c r="E381" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0">
+        <v>1676592279165</v>
+      </c>
+      <c r="B382" s="0">
+        <v>29335987915633</v>
+      </c>
+      <c r="C382" s="0">
+        <v>160</v>
+      </c>
+      <c r="D382" s="0">
+        <v>-93</v>
+      </c>
+      <c r="E382" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0">
+        <v>1676592279174</v>
+      </c>
+      <c r="B383" s="0">
+        <v>29335996391403</v>
+      </c>
+      <c r="C383" s="0">
+        <v>163</v>
+      </c>
+      <c r="D383" s="0">
+        <v>-95</v>
+      </c>
+      <c r="E383" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0">
+        <v>1676592279182</v>
+      </c>
+      <c r="B384" s="0">
+        <v>29336004873458</v>
+      </c>
+      <c r="C384" s="0">
+        <v>165</v>
+      </c>
+      <c r="D384" s="0">
+        <v>-97</v>
+      </c>
+      <c r="E384" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0">
+        <v>1676592279191</v>
+      </c>
+      <c r="B385" s="0">
+        <v>29336013352839</v>
+      </c>
+      <c r="C385" s="0">
+        <v>168</v>
+      </c>
+      <c r="D385" s="0">
+        <v>-98</v>
+      </c>
+      <c r="E385" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0">
+        <v>1676592279199</v>
+      </c>
+      <c r="B386" s="0">
+        <v>29336021830664</v>
+      </c>
+      <c r="C386" s="0">
+        <v>170</v>
+      </c>
+      <c r="D386" s="0">
+        <v>-98</v>
+      </c>
+      <c r="E386" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0">
+        <v>1676592279208</v>
+      </c>
+      <c r="B387" s="0">
+        <v>29336030311732</v>
+      </c>
+      <c r="C387" s="0">
+        <v>172</v>
+      </c>
+      <c r="D387" s="0">
+        <v>-98</v>
+      </c>
+      <c r="E387" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0">
+        <v>1676592279216</v>
+      </c>
+      <c r="B388" s="0">
+        <v>29336038797420</v>
+      </c>
+      <c r="C388" s="0">
+        <v>174</v>
+      </c>
+      <c r="D388" s="0">
+        <v>-98</v>
+      </c>
+      <c r="E388" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0">
+        <v>1676592279225</v>
+      </c>
+      <c r="B389" s="0">
+        <v>29336047277177</v>
+      </c>
+      <c r="C389" s="0">
+        <v>177</v>
+      </c>
+      <c r="D389" s="0">
+        <v>-97</v>
+      </c>
+      <c r="E389" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0">
+        <v>1676592279233</v>
+      </c>
+      <c r="B390" s="0">
+        <v>29336055753139</v>
+      </c>
+      <c r="C390" s="0">
+        <v>178</v>
+      </c>
+      <c r="D390" s="0">
+        <v>-97</v>
+      </c>
+      <c r="E390" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0">
+        <v>1676592279242</v>
+      </c>
+      <c r="B391" s="0">
+        <v>29336064233079</v>
+      </c>
+      <c r="C391" s="0">
+        <v>180</v>
+      </c>
+      <c r="D391" s="0">
+        <v>-96</v>
+      </c>
+      <c r="E391" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0">
+        <v>1676592279250</v>
+      </c>
+      <c r="B392" s="0">
+        <v>29336072718553</v>
+      </c>
+      <c r="C392" s="0">
+        <v>182</v>
+      </c>
+      <c r="D392" s="0">
+        <v>-96</v>
+      </c>
+      <c r="E392" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0">
+        <v>1676592279259</v>
+      </c>
+      <c r="B393" s="0">
+        <v>29336081175962</v>
+      </c>
+      <c r="C393" s="0">
+        <v>183</v>
+      </c>
+      <c r="D393" s="0">
+        <v>-96</v>
+      </c>
+      <c r="E393" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0">
+        <v>1676592279267</v>
+      </c>
+      <c r="B394" s="0">
+        <v>29336089676938</v>
+      </c>
+      <c r="C394" s="0">
+        <v>185</v>
+      </c>
+      <c r="D394" s="0">
+        <v>-97</v>
+      </c>
+      <c r="E394" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0">
+        <v>1676592279276</v>
+      </c>
+      <c r="B395" s="0">
+        <v>29336098150144</v>
+      </c>
+      <c r="C395" s="0">
+        <v>186</v>
+      </c>
+      <c r="D395" s="0">
+        <v>-98</v>
+      </c>
+      <c r="E395" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0">
+        <v>1676592279284</v>
+      </c>
+      <c r="B396" s="0">
+        <v>29336106638089</v>
+      </c>
+      <c r="C396" s="0">
+        <v>187</v>
+      </c>
+      <c r="D396" s="0">
+        <v>-99</v>
+      </c>
+      <c r="E396" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0">
+        <v>1676592279293</v>
+      </c>
+      <c r="B397" s="0">
+        <v>29336115118192</v>
+      </c>
+      <c r="C397" s="0">
+        <v>188</v>
+      </c>
+      <c r="D397" s="0">
+        <v>-99</v>
+      </c>
+      <c r="E397" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0">
+        <v>1676592279301</v>
+      </c>
+      <c r="B398" s="0">
+        <v>29336123595324</v>
+      </c>
+      <c r="C398" s="0">
+        <v>189</v>
+      </c>
+      <c r="D398" s="0">
+        <v>-100</v>
+      </c>
+      <c r="E398" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0">
+        <v>1676592279310</v>
+      </c>
+      <c r="B399" s="0">
+        <v>29336132079883</v>
+      </c>
+      <c r="C399" s="0">
+        <v>190</v>
+      </c>
+      <c r="D399" s="0">
+        <v>-99</v>
+      </c>
+      <c r="E399" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0">
+        <v>1676592279318</v>
+      </c>
+      <c r="B400" s="0">
+        <v>29336140560576</v>
+      </c>
+      <c r="C400" s="0">
+        <v>191</v>
+      </c>
+      <c r="D400" s="0">
+        <v>-98</v>
+      </c>
+      <c r="E400" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0">
+        <v>1676592279327</v>
+      </c>
+      <c r="B401" s="0">
+        <v>29336149040037</v>
+      </c>
+      <c r="C401" s="0">
+        <v>192</v>
+      </c>
+      <c r="D401" s="0">
+        <v>-97</v>
+      </c>
+      <c r="E401" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0">
+        <v>1676592279336</v>
+      </c>
+      <c r="B402" s="0">
+        <v>29336157519641</v>
+      </c>
+      <c r="C402" s="0">
+        <v>192</v>
+      </c>
+      <c r="D402" s="0">
+        <v>-95</v>
+      </c>
+      <c r="E402" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0">
+        <v>1676592279344</v>
+      </c>
+      <c r="B403" s="0">
+        <v>29336165998381</v>
+      </c>
+      <c r="C403" s="0">
+        <v>192</v>
+      </c>
+      <c r="D403" s="0">
+        <v>-93</v>
+      </c>
+      <c r="E403" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0">
+        <v>1676592279352</v>
+      </c>
+      <c r="B404" s="0">
+        <v>29336174483051</v>
+      </c>
+      <c r="C404" s="0">
+        <v>192</v>
+      </c>
+      <c r="D404" s="0">
+        <v>-91</v>
+      </c>
+      <c r="E404" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0">
+        <v>1676592279360</v>
+      </c>
+      <c r="B405" s="0">
+        <v>29336182963235</v>
+      </c>
+      <c r="C405" s="0">
+        <v>193</v>
+      </c>
+      <c r="D405" s="0">
+        <v>-91</v>
+      </c>
+      <c r="E405" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0">
+        <v>1676592279369</v>
+      </c>
+      <c r="B406" s="0">
+        <v>29336191442108</v>
+      </c>
+      <c r="C406" s="0">
+        <v>194</v>
+      </c>
+      <c r="D406" s="0">
+        <v>-91</v>
+      </c>
+      <c r="E406" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0">
+        <v>1676592279377</v>
+      </c>
+      <c r="B407" s="0">
+        <v>29336199920694</v>
+      </c>
+      <c r="C407" s="0">
+        <v>195</v>
+      </c>
+      <c r="D407" s="0">
+        <v>-90</v>
+      </c>
+      <c r="E407" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0">
+        <v>1676592279386</v>
+      </c>
+      <c r="B408" s="0">
+        <v>29336208403910</v>
+      </c>
+      <c r="C408" s="0">
+        <v>196</v>
+      </c>
+      <c r="D408" s="0">
+        <v>-90</v>
+      </c>
+      <c r="E408" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0">
+        <v>1676592279394</v>
+      </c>
+      <c r="B409" s="0">
+        <v>29336216886241</v>
+      </c>
+      <c r="C409" s="0">
+        <v>197</v>
+      </c>
+      <c r="D409" s="0">
+        <v>-89</v>
+      </c>
+      <c r="E409" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0">
+        <v>1676592279403</v>
+      </c>
+      <c r="B410" s="0">
+        <v>29336225354268</v>
+      </c>
+      <c r="C410" s="0">
+        <v>197</v>
+      </c>
+      <c r="D410" s="0">
+        <v>-89</v>
+      </c>
+      <c r="E410" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0">
+        <v>1676592279411</v>
+      </c>
+      <c r="B411" s="0">
+        <v>29336233834513</v>
+      </c>
+      <c r="C411" s="0">
+        <v>197</v>
+      </c>
+      <c r="D411" s="0">
+        <v>-92</v>
+      </c>
+      <c r="E411" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0">
+        <v>1676592279420</v>
+      </c>
+      <c r="B412" s="0">
+        <v>29336242325541</v>
+      </c>
+      <c r="C412" s="0">
+        <v>198</v>
+      </c>
+      <c r="D412" s="0">
+        <v>-96</v>
+      </c>
+      <c r="E412" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0">
+        <v>1676592279428</v>
+      </c>
+      <c r="B413" s="0">
+        <v>29336250802908</v>
+      </c>
+      <c r="C413" s="0">
+        <v>198</v>
+      </c>
+      <c r="D413" s="0">
+        <v>-95</v>
+      </c>
+      <c r="E413" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0">
+        <v>1676592279437</v>
+      </c>
+      <c r="B414" s="0">
+        <v>29336259280722</v>
+      </c>
+      <c r="C414" s="0">
+        <v>199</v>
+      </c>
+      <c r="D414" s="0">
+        <v>-93</v>
+      </c>
+      <c r="E414" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0">
+        <v>1676592279445</v>
+      </c>
+      <c r="B415" s="0">
+        <v>29336267769766</v>
+      </c>
+      <c r="C415" s="0">
+        <v>199</v>
+      </c>
+      <c r="D415" s="0">
+        <v>-91</v>
+      </c>
+      <c r="E415" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0">
+        <v>1676592279454</v>
+      </c>
+      <c r="B416" s="0">
+        <v>29336276247082</v>
+      </c>
+      <c r="C416" s="0">
+        <v>199</v>
+      </c>
+      <c r="D416" s="0">
+        <v>-88</v>
+      </c>
+      <c r="E416" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0">
+        <v>1676592279462</v>
+      </c>
+      <c r="B417" s="0">
+        <v>29336284727581</v>
+      </c>
+      <c r="C417" s="0">
+        <v>199</v>
+      </c>
+      <c r="D417" s="0">
+        <v>-88</v>
+      </c>
+      <c r="E417" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0">
+        <v>1676592279471</v>
+      </c>
+      <c r="B418" s="0">
+        <v>29336293208344</v>
+      </c>
+      <c r="C418" s="0">
+        <v>199</v>
+      </c>
+      <c r="D418" s="0">
+        <v>-89</v>
+      </c>
+      <c r="E418" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0">
+        <v>1676592279479</v>
+      </c>
+      <c r="B419" s="0">
+        <v>29336301688988</v>
+      </c>
+      <c r="C419" s="0">
+        <v>199</v>
+      </c>
+      <c r="D419" s="0">
+        <v>-89</v>
+      </c>
+      <c r="E419" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0">
+        <v>1676592279488</v>
+      </c>
+      <c r="B420" s="0">
+        <v>29336310168378</v>
+      </c>
+      <c r="C420" s="0">
+        <v>200</v>
+      </c>
+      <c r="D420" s="0">
+        <v>-89</v>
+      </c>
+      <c r="E420" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0">
+        <v>1676592279496</v>
+      </c>
+      <c r="B421" s="0">
+        <v>29336318649528</v>
+      </c>
+      <c r="C421" s="0">
+        <v>200</v>
+      </c>
+      <c r="D421" s="0">
+        <v>-89</v>
+      </c>
+      <c r="E421" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0">
+        <v>1676592279505</v>
+      </c>
+      <c r="B422" s="0">
+        <v>29336327130944</v>
+      </c>
+      <c r="C422" s="0">
+        <v>200</v>
+      </c>
+      <c r="D422" s="0">
+        <v>-88</v>
+      </c>
+      <c r="E422" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0">
+        <v>1676592279513</v>
+      </c>
+      <c r="B423" s="0">
+        <v>29336335600832</v>
+      </c>
+      <c r="C423" s="0">
+        <v>200</v>
+      </c>
+      <c r="D423" s="0">
+        <v>-88</v>
+      </c>
+      <c r="E423" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0">
+        <v>1676592279522</v>
+      </c>
+      <c r="B424" s="0">
+        <v>29336344090344</v>
+      </c>
+      <c r="C424" s="0">
+        <v>200</v>
+      </c>
+      <c r="D424" s="0">
+        <v>-88</v>
+      </c>
+      <c r="E424" s="0">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0">
+        <v>1676592279530</v>
+      </c>
+      <c r="B425" s="0">
+        <v>29336352570977</v>
+      </c>
+      <c r="C425" s="0">
+        <v>201</v>
+      </c>
+      <c r="D425" s="0">
+        <v>-89</v>
+      </c>
+      <c r="E425" s="0">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0">
+        <v>1676592279539</v>
+      </c>
+      <c r="B426" s="0">
+        <v>29336361051894</v>
+      </c>
+      <c r="C426" s="0">
+        <v>201</v>
+      </c>
+      <c r="D426" s="0">
+        <v>-91</v>
+      </c>
+      <c r="E426" s="0">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0">
+        <v>1676592279547</v>
+      </c>
+      <c r="B427" s="0">
+        <v>29336369528588</v>
+      </c>
+      <c r="C427" s="0">
+        <v>202</v>
+      </c>
+      <c r="D427" s="0">
+        <v>-92</v>
+      </c>
+      <c r="E427" s="0">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0">
+        <v>1676592279556</v>
+      </c>
+      <c r="B428" s="0">
+        <v>29336378013208</v>
+      </c>
+      <c r="C428" s="0">
+        <v>202</v>
+      </c>
+      <c r="D428" s="0">
+        <v>-94</v>
+      </c>
+      <c r="E428" s="0">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0">
+        <v>1676592279564</v>
+      </c>
+      <c r="B429" s="0">
+        <v>29336386489638</v>
+      </c>
+      <c r="C429" s="0">
+        <v>202</v>
+      </c>
+      <c r="D429" s="0">
+        <v>-95</v>
+      </c>
+      <c r="E429" s="0">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0">
+        <v>1676592279572</v>
+      </c>
+      <c r="B430" s="0">
+        <v>29336394981581</v>
+      </c>
+      <c r="C430" s="0">
+        <v>202</v>
+      </c>
+      <c r="D430" s="0">
+        <v>-96</v>
+      </c>
+      <c r="E430" s="0">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0">
+        <v>1676592279581</v>
+      </c>
+      <c r="B431" s="0">
+        <v>29336403437749</v>
+      </c>
+      <c r="C431" s="0">
+        <v>202</v>
+      </c>
+      <c r="D431" s="0">
+        <v>-96</v>
+      </c>
+      <c r="E431" s="0">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0">
+        <v>1676592279589</v>
+      </c>
+      <c r="B432" s="0">
+        <v>29336411936488</v>
+      </c>
+      <c r="C432" s="0">
+        <v>201</v>
+      </c>
+      <c r="D432" s="0">
+        <v>-96</v>
+      </c>
+      <c r="E432" s="0">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0">
+        <v>1676592279598</v>
+      </c>
+      <c r="B433" s="0">
+        <v>29336420414902</v>
+      </c>
+      <c r="C433" s="0">
+        <v>201</v>
+      </c>
+      <c r="D433" s="0">
+        <v>-95</v>
+      </c>
+      <c r="E433" s="0">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0">
+        <v>1676592279606</v>
+      </c>
+      <c r="B434" s="0">
+        <v>29336428893672</v>
+      </c>
+      <c r="C434" s="0">
+        <v>200</v>
+      </c>
+      <c r="D434" s="0">
+        <v>-94</v>
+      </c>
+      <c r="E434" s="0">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0">
+        <v>1676592279615</v>
+      </c>
+      <c r="B435" s="0">
+        <v>29336437372757</v>
+      </c>
+      <c r="C435" s="0">
+        <v>200</v>
+      </c>
+      <c r="D435" s="0">
+        <v>-94</v>
+      </c>
+      <c r="E435" s="0">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0">
+        <v>1676592279623</v>
+      </c>
+      <c r="B436" s="0">
+        <v>29336445853205</v>
+      </c>
+      <c r="C436" s="0">
+        <v>199</v>
+      </c>
+      <c r="D436" s="0">
+        <v>-95</v>
+      </c>
+      <c r="E436" s="0">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0">
+        <v>1676592279632</v>
+      </c>
+      <c r="B437" s="0">
+        <v>29336454336371</v>
+      </c>
+      <c r="C437" s="0">
+        <v>199</v>
+      </c>
+      <c r="D437" s="0">
+        <v>-95</v>
+      </c>
+      <c r="E437" s="0">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0">
+        <v>1676592279640</v>
+      </c>
+      <c r="B438" s="0">
+        <v>29336462817683</v>
+      </c>
+      <c r="C438" s="0">
+        <v>198</v>
+      </c>
+      <c r="D438" s="0">
+        <v>-96</v>
+      </c>
+      <c r="E438" s="0">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0">
+        <v>1676592279649</v>
+      </c>
+      <c r="B439" s="0">
+        <v>29336471296343</v>
+      </c>
+      <c r="C439" s="0">
+        <v>198</v>
+      </c>
+      <c r="D439" s="0">
+        <v>-97</v>
+      </c>
+      <c r="E439" s="0">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0">
+        <v>1676592279657</v>
+      </c>
+      <c r="B440" s="0">
+        <v>29336479767381</v>
+      </c>
+      <c r="C440" s="0">
+        <v>197</v>
+      </c>
+      <c r="D440" s="0">
+        <v>-99</v>
+      </c>
+      <c r="E440" s="0">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0">
+        <v>1676592279666</v>
+      </c>
+      <c r="B441" s="0">
+        <v>29336488255785</v>
+      </c>
+      <c r="C441" s="0">
+        <v>197</v>
+      </c>
+      <c r="D441" s="0">
+        <v>-100</v>
+      </c>
+      <c r="E441" s="0">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0">
+        <v>1676592279674</v>
+      </c>
+      <c r="B442" s="0">
+        <v>29336496739193</v>
+      </c>
+      <c r="C442" s="0">
+        <v>196</v>
+      </c>
+      <c r="D442" s="0">
+        <v>-101</v>
+      </c>
+      <c r="E442" s="0">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0">
+        <v>1676592279683</v>
+      </c>
+      <c r="B443" s="0">
+        <v>29336505232947</v>
+      </c>
+      <c r="C443" s="0">
+        <v>195</v>
+      </c>
+      <c r="D443" s="0">
+        <v>-101</v>
+      </c>
+      <c r="E443" s="0">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0">
+        <v>1676592279691</v>
+      </c>
+      <c r="B444" s="0">
+        <v>29336513689531</v>
+      </c>
+      <c r="C444" s="0">
+        <v>195</v>
+      </c>
+      <c r="D444" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E444" s="0">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0">
+        <v>1676592279700</v>
+      </c>
+      <c r="B445" s="0">
+        <v>29336522177773</v>
+      </c>
+      <c r="C445" s="0">
+        <v>195</v>
+      </c>
+      <c r="D445" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E445" s="0">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0">
+        <v>1676592279708</v>
+      </c>
+      <c r="B446" s="0">
+        <v>29336530661273</v>
+      </c>
+      <c r="C446" s="0">
+        <v>195</v>
+      </c>
+      <c r="D446" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E446" s="0">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0">
+        <v>1676592279717</v>
+      </c>
+      <c r="B447" s="0">
+        <v>29336539142850</v>
+      </c>
+      <c r="C447" s="0">
+        <v>195</v>
+      </c>
+      <c r="D447" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E447" s="0">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0">
+        <v>1676592279725</v>
+      </c>
+      <c r="B448" s="0">
+        <v>29336547613432</v>
+      </c>
+      <c r="C448" s="0">
+        <v>195</v>
+      </c>
+      <c r="D448" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E448" s="0">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0">
+        <v>1676592279734</v>
+      </c>
+      <c r="B449" s="0">
+        <v>29336556103789</v>
+      </c>
+      <c r="C449" s="0">
+        <v>195</v>
+      </c>
+      <c r="D449" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E449" s="0">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0">
+        <v>1676592279742</v>
+      </c>
+      <c r="B450" s="0">
+        <v>29336564582986</v>
+      </c>
+      <c r="C450" s="0">
+        <v>195</v>
+      </c>
+      <c r="D450" s="0">
+        <v>-102</v>
+      </c>
+      <c r="E450" s="0">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0">
+        <v>1676592279752</v>
+      </c>
+      <c r="B451" s="0">
+        <v>29336573057625</v>
+      </c>
+      <c r="C451" s="0">
+        <v>195</v>
+      </c>
+      <c r="D451" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E451" s="0">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0">
+        <v>1676592279759</v>
+      </c>
+      <c r="B452" s="0">
+        <v>29336581543843</v>
+      </c>
+      <c r="C452" s="0">
+        <v>195</v>
+      </c>
+      <c r="D452" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E452" s="0">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0">
+        <v>1676592279768</v>
+      </c>
+      <c r="B453" s="0">
+        <v>29336590026468</v>
+      </c>
+      <c r="C453" s="0">
+        <v>195</v>
+      </c>
+      <c r="D453" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E453" s="0">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0">
+        <v>1676592279776</v>
+      </c>
+      <c r="B454" s="0">
+        <v>29336598508330</v>
+      </c>
+      <c r="C454" s="0">
+        <v>195</v>
+      </c>
+      <c r="D454" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E454" s="0">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0">
+        <v>1676592279784</v>
+      </c>
+      <c r="B455" s="0">
+        <v>29336606979033</v>
+      </c>
+      <c r="C455" s="0">
+        <v>196</v>
+      </c>
+      <c r="D455" s="0">
+        <v>-103</v>
+      </c>
+      <c r="E455" s="0">
+        <v>-26</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/Data/IMUReadingsClip/DefenderDrag2aNeutral.xlsx
+++ b/Data/IMUReadingsClip/DefenderDrag2aNeutral.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>utcTimeMillis</t>
   </si>
@@ -176,6 +176,69 @@
   <si>
     <t>pitchDeg</t>
   </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>UncalAccelXMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelYMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelZMps2</t>
+  </si>
+  <si>
+    <t>BiasXMps2</t>
+  </si>
+  <si>
+    <t>BiasYMps2</t>
+  </si>
+  <si>
+    <t>BiasZMps2</t>
+  </si>
+  <si>
+    <t>CalAccelXMps2</t>
+  </si>
+  <si>
+    <t>CalAccelYMps2</t>
+  </si>
+  <si>
+    <t>CalAccelZMps2</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
 </sst>
 </file>
 
@@ -195,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -210,11 +273,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -223,6 +289,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -250,37 +319,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -16191,19 +16260,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -23942,19 +24011,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
